--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_18_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_18_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988431.4539100485</v>
+        <v>984596.137758394</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6051961.679838832</v>
+        <v>6051961.679838836</v>
       </c>
     </row>
     <row r="9">
@@ -1217,64 +1217,64 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
         <v>36.39025468426208</v>
       </c>
-      <c r="E9" t="n">
+      <c r="U9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="F9" t="n">
+      <c r="V9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="G9" t="n">
+      <c r="W9" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1299,13 +1299,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>17.8422975499833</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>17.8422975499833</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>141.5121327341263</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>39.87097519686766</v>
       </c>
       <c r="T11" t="n">
         <v>209.616899433655</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>179.2694183469823</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>44.09163721489042</v>
+        <v>44.09163721489043</v>
       </c>
       <c r="T12" t="n">
         <v>124.8125887466708</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1548,7 +1548,7 @@
         <v>130.9872392357504</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.3514261152632</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9168426887021</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>239.8087099681002</v>
       </c>
       <c r="U13" t="n">
-        <v>18.05922743624766</v>
+        <v>175.2752178948169</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>201.2105732387628</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>391.2539752972064</v>
+        <v>395.49929442858</v>
       </c>
       <c r="H14" t="n">
-        <v>266.9386168967821</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>39.87097519686766</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.616899433655</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4793149654022</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>16.03624970094568</v>
       </c>
       <c r="G16" t="n">
-        <v>141.8479179311972</v>
+        <v>163.0900140992919</v>
       </c>
       <c r="H16" t="n">
         <v>130.9872392357504</v>
       </c>
       <c r="I16" t="n">
-        <v>62.3514261152632</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>239.8087099681002</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6025608416909</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>159.6829281529579</v>
+        <v>159.1594933927941</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>395.49929442858</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>266.9386168967821</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>39.87097519686765</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>209.616899433655</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4793149654022</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.09163721489042</v>
+        <v>44.09163721489043</v>
       </c>
       <c r="T18" t="n">
         <v>124.8125887466708</v>
@@ -2004,7 +2004,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0900140992919</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.35142611526319</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9168426887021</v>
       </c>
       <c r="T19" t="n">
-        <v>239.8087099681002</v>
+        <v>163.0927712510323</v>
       </c>
       <c r="U19" t="n">
         <v>275.6025608416909</v>
       </c>
       <c r="V19" t="n">
-        <v>223.3154627733174</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2089,10 +2089,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>256.7508150290986</v>
+        <v>373.8054252374342</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.616899433655</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2250,10 +2250,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>41.18534058736746</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0900140992919</v>
       </c>
       <c r="H22" t="n">
         <v>130.9872392357504</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9168426887021</v>
       </c>
       <c r="T22" t="n">
         <v>239.8087099681002</v>
@@ -2298,7 +2298,7 @@
         <v>275.6025608416909</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>69.46992732881832</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2307,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>43.6561877191148</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.49929442858</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>266.9386168967821</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>39.87097519686766</v>
       </c>
       <c r="T23" t="n">
         <v>209.616899433655</v>
@@ -2377,16 +2377,16 @@
         <v>256.4793149654022</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>380.1493545922153</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2532,7 +2532,7 @@
         <v>239.8087099681002</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6025608416896</v>
+        <v>275.602560841691</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2569,10 +2569,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.49929442858</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>266.9386168967821</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>39.87097519686766</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.616899433655</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4793149654022</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>12.13815018945974</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>30.55388168807546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2769,7 +2769,7 @@
         <v>239.8087099681002</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6025608416909</v>
+        <v>275.602560841691</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
@@ -2803,7 +2803,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>395.49929442858</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>39.87097519686766</v>
       </c>
       <c r="T29" t="n">
         <v>209.616899433655</v>
       </c>
       <c r="U29" t="n">
-        <v>244.5257375493049</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>158.8667969249935</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>163.0900140992919</v>
       </c>
       <c r="H31" t="n">
-        <v>130.9872392357503</v>
+        <v>130.9872392357504</v>
       </c>
       <c r="I31" t="n">
         <v>62.3514261152632</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3037,16 +3037,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>79.18800459696985</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>266.9386168967821</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>39.87097519686766</v>
       </c>
       <c r="T32" t="n">
         <v>209.616899433655</v>
       </c>
       <c r="U32" t="n">
-        <v>139.2463437250483</v>
+        <v>256.4793149654022</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3243,7 +3243,7 @@
         <v>239.8087099681002</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6025608416909</v>
+        <v>275.6025608416905</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>166.9191053697812</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>266.9386168967821</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>20.55598506653983</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>44.09163721489042</v>
+        <v>44.09163721489043</v>
       </c>
       <c r="T36" t="n">
         <v>124.8125887466708</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>107.2970826242148</v>
       </c>
       <c r="G37" t="n">
         <v>163.0900140992919</v>
@@ -3444,7 +3444,7 @@
         <v>130.9872392357504</v>
       </c>
       <c r="I37" t="n">
-        <v>62.35142611526319</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>275.6025608416909</v>
       </c>
       <c r="V37" t="n">
-        <v>183.2209714631633</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>372.2532447226091</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3565,10 +3565,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>390.4050734282516</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>44.09163721489042</v>
+        <v>44.09163721489043</v>
       </c>
       <c r="T39" t="n">
         <v>124.8125887466708</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>44.25271445872026</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>59.58402244051923</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3675,10 +3675,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0900140992919</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>130.9872392357504</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9168426887021</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>239.8087099681002</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3742,13 +3742,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>244.0519973055223</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>395.49929442858</v>
       </c>
       <c r="H41" t="n">
-        <v>266.9386168967821</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>39.87097519686766</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>357.5069467325912</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>44.09163721489042</v>
+        <v>44.09163721489043</v>
       </c>
       <c r="T42" t="n">
         <v>124.8125887466708</v>
@@ -3909,16 +3909,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>70.30479306788854</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0900140992919</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>130.9872392357504</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.3514261152632</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9168426887021</v>
       </c>
       <c r="T43" t="n">
-        <v>239.8087099681002</v>
+        <v>80.07412126655188</v>
       </c>
       <c r="U43" t="n">
         <v>275.6025608416909</v>
@@ -3960,7 +3960,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.49929442858</v>
       </c>
       <c r="H44" t="n">
-        <v>31.01528699791928</v>
+        <v>266.9386168967821</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.1453238040448</v>
       </c>
       <c r="U44" t="n">
         <v>256.4793149654022</v>
@@ -4039,7 +4039,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>44.09163721489042</v>
+        <v>44.09163721489043</v>
       </c>
       <c r="T45" t="n">
         <v>124.8125887466708</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>62.22503251418139</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0900140992919</v>
       </c>
       <c r="H46" t="n">
         <v>130.9872392357504</v>
       </c>
       <c r="I46" t="n">
-        <v>62.35142611526319</v>
+        <v>62.3514261152632</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4194,10 +4194,10 @@
         <v>275.6025608416909</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>139.3118133806614</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C9" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D9" t="n">
-        <v>128.5021791757032</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E9" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F9" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G9" t="n">
         <v>3.305200243802188</v>
@@ -4880,31 +4880,31 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>31.77020107089877</v>
+        <v>5.706527910441171</v>
       </c>
       <c r="J9" t="n">
-        <v>59.89648401348967</v>
+        <v>12.29595456866669</v>
       </c>
       <c r="K9" t="n">
-        <v>71.1588637208333</v>
+        <v>23.55833427601031</v>
       </c>
       <c r="L9" t="n">
-        <v>86.30252310133811</v>
+        <v>38.70199365651513</v>
       </c>
       <c r="M9" t="n">
-        <v>103.9744593181195</v>
+        <v>56.37392987329654</v>
       </c>
       <c r="N9" t="n">
-        <v>122.1141191020718</v>
+        <v>74.51358965724877</v>
       </c>
       <c r="O9" t="n">
-        <v>138.7083639341947</v>
+        <v>91.1078344893717</v>
       </c>
       <c r="P9" t="n">
-        <v>152.0267083864403</v>
+        <v>104.4261789416173</v>
       </c>
       <c r="Q9" t="n">
-        <v>160.929668948206</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="R9" t="n">
         <v>165.2600121901094</v>
@@ -4913,22 +4913,22 @@
         <v>165.2600121901094</v>
       </c>
       <c r="T9" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="U9" t="n">
-        <v>165.2600121901094</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="V9" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="W9" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="X9" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="Y9" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>104.7923756428305</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C10" t="n">
-        <v>104.7923756428305</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D10" t="n">
-        <v>104.7923756428305</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E10" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F10" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G10" t="n">
         <v>3.305200243802188</v>
@@ -4965,22 +4965,22 @@
         <v>44.20705326085427</v>
       </c>
       <c r="K10" t="n">
-        <v>85.10890627790634</v>
+        <v>51.00047617709629</v>
       </c>
       <c r="L10" t="n">
-        <v>126.0107592949584</v>
+        <v>59.69371861623731</v>
       </c>
       <c r="M10" t="n">
-        <v>136.0791245210935</v>
+        <v>68.85952388578045</v>
       </c>
       <c r="N10" t="n">
-        <v>145.026987427909</v>
+        <v>77.80738679259596</v>
       </c>
       <c r="O10" t="n">
-        <v>153.2917870759318</v>
+        <v>86.07218644061874</v>
       </c>
       <c r="P10" t="n">
-        <v>160.3637509630746</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q10" t="n">
         <v>165.2600121901094</v>
@@ -4992,22 +4992,22 @@
         <v>146.5247019534642</v>
       </c>
       <c r="T10" t="n">
-        <v>104.7923756428305</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="U10" t="n">
-        <v>104.7923756428305</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="V10" t="n">
-        <v>104.7923756428305</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="W10" t="n">
-        <v>104.7923756428305</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="X10" t="n">
-        <v>104.7923756428305</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="Y10" t="n">
-        <v>104.7923756428305</v>
+        <v>45.03752655443588</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1310.688635956454</v>
+        <v>1308.553595972604</v>
       </c>
       <c r="C11" t="n">
-        <v>1310.688635956454</v>
+        <v>1308.553595972604</v>
       </c>
       <c r="D11" t="n">
-        <v>874.7788511308988</v>
+        <v>1308.553595972604</v>
       </c>
       <c r="E11" t="n">
         <v>874.7788511308988</v>
@@ -5032,22 +5032,22 @@
         <v>446.9114215401066</v>
       </c>
       <c r="G11" t="n">
-        <v>47.41718474356106</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="H11" t="n">
-        <v>47.41718474356106</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="I11" t="n">
         <v>118.9365917639705</v>
       </c>
       <c r="J11" t="n">
-        <v>277.2866545754684</v>
+        <v>277.2866545754686</v>
       </c>
       <c r="K11" t="n">
-        <v>514.6123507107054</v>
+        <v>514.6123507107056</v>
       </c>
       <c r="L11" t="n">
-        <v>809.0358625400455</v>
+        <v>809.0358625400456</v>
       </c>
       <c r="M11" t="n">
         <v>1136.638748787553</v>
@@ -5065,28 +5065,28 @@
         <v>2253.662139923805</v>
       </c>
       <c r="R11" t="n">
-        <v>2370.859237178053</v>
+        <v>2370.859237178052</v>
       </c>
       <c r="S11" t="n">
-        <v>2370.859237178053</v>
+        <v>2330.585524857984</v>
       </c>
       <c r="T11" t="n">
-        <v>2159.124995325876</v>
+        <v>2118.851283005808</v>
       </c>
       <c r="U11" t="n">
-        <v>1900.054980209308</v>
+        <v>1859.78126788924</v>
       </c>
       <c r="V11" t="n">
-        <v>1900.054980209308</v>
+        <v>1859.78126788924</v>
       </c>
       <c r="W11" t="n">
-        <v>1718.974759656801</v>
+        <v>1859.78126788924</v>
       </c>
       <c r="X11" t="n">
-        <v>1718.974759656801</v>
+        <v>1859.78126788924</v>
       </c>
       <c r="Y11" t="n">
-        <v>1310.688635956454</v>
+        <v>1451.495144188893</v>
       </c>
     </row>
     <row r="12">
@@ -5111,25 +5111,25 @@
         <v>163.6827234637261</v>
       </c>
       <c r="G12" t="n">
-        <v>79.31614662250912</v>
+        <v>79.31614662250911</v>
       </c>
       <c r="H12" t="n">
-        <v>47.41718474356106</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="I12" t="n">
-        <v>74.36658772664244</v>
+        <v>81.78656726718469</v>
       </c>
       <c r="J12" t="n">
-        <v>168.6788003306395</v>
+        <v>176.0987798711818</v>
       </c>
       <c r="K12" t="n">
-        <v>329.8733934990793</v>
+        <v>329.8733934990794</v>
       </c>
       <c r="L12" t="n">
-        <v>546.61941666239</v>
+        <v>546.6194166623901</v>
       </c>
       <c r="M12" t="n">
-        <v>799.5518024445222</v>
+        <v>799.5518024445223</v>
       </c>
       <c r="N12" t="n">
         <v>1059.178555854504</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1029.369677487777</v>
+        <v>919.7892044712677</v>
       </c>
       <c r="C13" t="n">
-        <v>856.8079659710016</v>
+        <v>919.7892044712677</v>
       </c>
       <c r="D13" t="n">
-        <v>690.9299731725243</v>
+        <v>753.9112116727904</v>
       </c>
       <c r="E13" t="n">
-        <v>521.1719694232617</v>
+        <v>584.1532079235276</v>
       </c>
       <c r="F13" t="n">
-        <v>344.4649153850179</v>
+        <v>407.4461538852838</v>
       </c>
       <c r="G13" t="n">
-        <v>179.7275274059352</v>
+        <v>242.7087659062011</v>
       </c>
       <c r="H13" t="n">
-        <v>47.41718474356106</v>
+        <v>110.3984232438269</v>
       </c>
       <c r="I13" t="n">
-        <v>47.41718474356106</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="J13" t="n">
         <v>193.1653212310857</v>
@@ -5205,46 +5205,46 @@
         <v>565.1557171556774</v>
       </c>
       <c r="L13" t="n">
-        <v>689.5791263023458</v>
+        <v>1107.789008070307</v>
       </c>
       <c r="M13" t="n">
-        <v>1276.366787503914</v>
+        <v>1238.97604756621</v>
       </c>
       <c r="N13" t="n">
-        <v>1846.6932955757</v>
+        <v>1367.043752480352</v>
       </c>
       <c r="O13" t="n">
-        <v>1964.984549422612</v>
+        <v>1667.224231214333</v>
       </c>
       <c r="P13" t="n">
-        <v>2115.949728296286</v>
+        <v>2115.949728296285</v>
       </c>
       <c r="Q13" t="n">
-        <v>2354.221017386493</v>
+        <v>2354.221017386492</v>
       </c>
       <c r="R13" t="n">
-        <v>2370.859237178053</v>
+        <v>2370.859237178052</v>
       </c>
       <c r="S13" t="n">
-        <v>2226.498790017748</v>
+        <v>2370.859237178052</v>
       </c>
       <c r="T13" t="n">
-        <v>1984.267769847949</v>
+        <v>2128.628217008254</v>
       </c>
       <c r="U13" t="n">
-        <v>1966.026125972952</v>
+        <v>1951.582542367025</v>
       </c>
       <c r="V13" t="n">
-        <v>1966.026125972952</v>
+        <v>1664.627034237455</v>
       </c>
       <c r="W13" t="n">
-        <v>1693.999721559243</v>
+        <v>1392.600629823747</v>
       </c>
       <c r="X13" t="n">
-        <v>1448.607966892656</v>
+        <v>1147.208875157159</v>
       </c>
       <c r="Y13" t="n">
-        <v>1221.188296206764</v>
+        <v>919.7892044712677</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1581.942716626972</v>
+        <v>1078.021854402376</v>
       </c>
       <c r="C14" t="n">
-        <v>1581.942716626972</v>
+        <v>1078.021854402376</v>
       </c>
       <c r="D14" t="n">
-        <v>1146.032931801416</v>
+        <v>874.7788511308988</v>
       </c>
       <c r="E14" t="n">
-        <v>712.2581869597111</v>
+        <v>874.7788511308988</v>
       </c>
       <c r="F14" t="n">
-        <v>712.2581869597111</v>
+        <v>446.9114215401066</v>
       </c>
       <c r="G14" t="n">
-        <v>317.0521513059672</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="H14" t="n">
-        <v>47.41718474356106</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="I14" t="n">
-        <v>118.936591763971</v>
+        <v>118.9365917639703</v>
       </c>
       <c r="J14" t="n">
-        <v>277.2866545754688</v>
+        <v>277.2866545754679</v>
       </c>
       <c r="K14" t="n">
-        <v>514.6123507107058</v>
+        <v>514.6123507107051</v>
       </c>
       <c r="L14" t="n">
-        <v>809.0358625400463</v>
+        <v>809.0358625400449</v>
       </c>
       <c r="M14" t="n">
-        <v>1136.638748787554</v>
+        <v>1136.638748787553</v>
       </c>
       <c r="N14" t="n">
-        <v>1469.542592232819</v>
+        <v>1469.542592232818</v>
       </c>
       <c r="O14" t="n">
-        <v>1783.894251556588</v>
+        <v>1783.894251556587</v>
       </c>
       <c r="P14" t="n">
-        <v>2052.18612000675</v>
+        <v>2052.186120006749</v>
       </c>
       <c r="Q14" t="n">
-        <v>2253.662139923805</v>
+        <v>2253.662139923804</v>
       </c>
       <c r="R14" t="n">
-        <v>2370.859237178053</v>
+        <v>2370.859237178052</v>
       </c>
       <c r="S14" t="n">
-        <v>2370.859237178053</v>
+        <v>2330.585524857984</v>
       </c>
       <c r="T14" t="n">
-        <v>2370.859237178053</v>
+        <v>2118.851283005807</v>
       </c>
       <c r="U14" t="n">
-        <v>2370.859237178053</v>
+        <v>1859.781267889239</v>
       </c>
       <c r="V14" t="n">
-        <v>2008.242287111879</v>
+        <v>1497.164317823066</v>
       </c>
       <c r="W14" t="n">
-        <v>2008.242287111879</v>
+        <v>1497.164317823066</v>
       </c>
       <c r="X14" t="n">
-        <v>2008.242287111879</v>
+        <v>1078.021854402376</v>
       </c>
       <c r="Y14" t="n">
-        <v>2008.242287111879</v>
+        <v>1078.021854402376</v>
       </c>
     </row>
     <row r="15">
@@ -5348,25 +5348,25 @@
         <v>163.6827234637261</v>
       </c>
       <c r="G15" t="n">
-        <v>79.31614662250912</v>
+        <v>79.31614662250911</v>
       </c>
       <c r="H15" t="n">
-        <v>47.41718474356106</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="I15" t="n">
-        <v>74.36658772664265</v>
+        <v>81.78656726718468</v>
       </c>
       <c r="J15" t="n">
-        <v>168.6788003306397</v>
+        <v>176.0987798711818</v>
       </c>
       <c r="K15" t="n">
-        <v>329.8733934990794</v>
+        <v>337.2933730396215</v>
       </c>
       <c r="L15" t="n">
-        <v>546.6194166623901</v>
+        <v>554.0393962029322</v>
       </c>
       <c r="M15" t="n">
-        <v>799.5518024445223</v>
+        <v>806.9717819850644</v>
       </c>
       <c r="N15" t="n">
         <v>1059.178555854504</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>905.01626039351</v>
+        <v>868.8608554706902</v>
       </c>
       <c r="C16" t="n">
-        <v>732.454548876735</v>
+        <v>696.2991439539152</v>
       </c>
       <c r="D16" t="n">
-        <v>732.454548876735</v>
+        <v>530.4211511554379</v>
       </c>
       <c r="E16" t="n">
-        <v>562.6965451274723</v>
+        <v>360.6631474061751</v>
       </c>
       <c r="F16" t="n">
-        <v>385.9894910892285</v>
+        <v>344.4649153850179</v>
       </c>
       <c r="G16" t="n">
-        <v>242.7087659062011</v>
+        <v>179.7275274059352</v>
       </c>
       <c r="H16" t="n">
-        <v>110.3984232438269</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="I16" t="n">
-        <v>47.41718474356106</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="J16" t="n">
-        <v>193.1653212310857</v>
+        <v>193.1653212310856</v>
       </c>
       <c r="K16" t="n">
         <v>565.1557171556774</v>
       </c>
       <c r="L16" t="n">
-        <v>739.3257020644089</v>
+        <v>1107.789008070307</v>
       </c>
       <c r="M16" t="n">
-        <v>1326.113363265977</v>
+        <v>1238.97604756621</v>
       </c>
       <c r="N16" t="n">
-        <v>1896.439871337763</v>
+        <v>1367.043752480352</v>
       </c>
       <c r="O16" t="n">
-        <v>2014.731125184675</v>
+        <v>1667.224231214333</v>
       </c>
       <c r="P16" t="n">
-        <v>2115.949728296286</v>
+        <v>2115.949728296285</v>
       </c>
       <c r="Q16" t="n">
-        <v>2354.221017386493</v>
+        <v>2354.221017386492</v>
       </c>
       <c r="R16" t="n">
-        <v>2370.859237178053</v>
+        <v>2370.859237178052</v>
       </c>
       <c r="S16" t="n">
-        <v>2370.859237178053</v>
+        <v>2370.859237178052</v>
       </c>
       <c r="T16" t="n">
-        <v>2128.628217008255</v>
+        <v>2370.859237178052</v>
       </c>
       <c r="U16" t="n">
-        <v>2128.628217008255</v>
+        <v>2092.472812085435</v>
       </c>
       <c r="V16" t="n">
-        <v>1841.672708878685</v>
+        <v>1805.517303955865</v>
       </c>
       <c r="W16" t="n">
-        <v>1569.646304464977</v>
+        <v>1533.490899542157</v>
       </c>
       <c r="X16" t="n">
-        <v>1324.254549798389</v>
+        <v>1288.099144875569</v>
       </c>
       <c r="Y16" t="n">
-        <v>1096.834879112497</v>
+        <v>1060.679474189677</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1305.709704716495</v>
+        <v>646.3268226033641</v>
       </c>
       <c r="C17" t="n">
-        <v>1305.709704716495</v>
+        <v>208.1843497867874</v>
       </c>
       <c r="D17" t="n">
-        <v>1144.413817693305</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="E17" t="n">
-        <v>1144.413817693305</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="F17" t="n">
-        <v>716.5463881025128</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="G17" t="n">
-        <v>317.0521513059672</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="H17" t="n">
-        <v>47.41718474356106</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="I17" t="n">
-        <v>118.9365917639707</v>
+        <v>118.9365917639708</v>
       </c>
       <c r="J17" t="n">
         <v>277.2866545754686</v>
@@ -5521,7 +5521,7 @@
         <v>514.6123507107056</v>
       </c>
       <c r="L17" t="n">
-        <v>809.0358625400456</v>
+        <v>809.0358625400455</v>
       </c>
       <c r="M17" t="n">
         <v>1136.638748787553</v>
@@ -5539,28 +5539,28 @@
         <v>2253.662139923805</v>
       </c>
       <c r="R17" t="n">
-        <v>2370.859237178053</v>
+        <v>2370.859237178052</v>
       </c>
       <c r="S17" t="n">
-        <v>2330.585524857985</v>
+        <v>2370.859237178052</v>
       </c>
       <c r="T17" t="n">
-        <v>2118.851283005808</v>
+        <v>2159.124995325876</v>
       </c>
       <c r="U17" t="n">
-        <v>2118.851283005808</v>
+        <v>1900.054980209308</v>
       </c>
       <c r="V17" t="n">
-        <v>2118.851283005808</v>
+        <v>1900.054980209308</v>
       </c>
       <c r="W17" t="n">
-        <v>1713.995828416841</v>
+        <v>1900.054980209308</v>
       </c>
       <c r="X17" t="n">
-        <v>1713.995828416841</v>
+        <v>1480.912516788619</v>
       </c>
       <c r="Y17" t="n">
-        <v>1305.709704716495</v>
+        <v>1072.626393088272</v>
       </c>
     </row>
     <row r="18">
@@ -5585,31 +5585,31 @@
         <v>163.6827234637261</v>
       </c>
       <c r="G18" t="n">
-        <v>79.31614662250912</v>
+        <v>79.31614662250911</v>
       </c>
       <c r="H18" t="n">
-        <v>47.41718474356106</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="I18" t="n">
-        <v>81.78656726718471</v>
+        <v>81.78656726718469</v>
       </c>
       <c r="J18" t="n">
         <v>176.0987798711818</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2933730396216</v>
+        <v>337.2933730396215</v>
       </c>
       <c r="L18" t="n">
-        <v>554.0393962029324</v>
+        <v>554.0393962029322</v>
       </c>
       <c r="M18" t="n">
-        <v>806.9717819850646</v>
+        <v>806.9717819850644</v>
       </c>
       <c r="N18" t="n">
-        <v>1059.178555854504</v>
+        <v>1066.598535395046</v>
       </c>
       <c r="O18" t="n">
-        <v>1296.686313021258</v>
+        <v>1304.1062925618</v>
       </c>
       <c r="P18" t="n">
         <v>1487.307227201325</v>
@@ -5649,43 +5649,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>960.0405733256684</v>
+        <v>559.7602353295449</v>
       </c>
       <c r="C19" t="n">
-        <v>787.4788618088934</v>
+        <v>559.7602353295449</v>
       </c>
       <c r="D19" t="n">
-        <v>621.6008690104161</v>
+        <v>393.8822425310676</v>
       </c>
       <c r="E19" t="n">
-        <v>451.8428652611534</v>
+        <v>224.1242387818048</v>
       </c>
       <c r="F19" t="n">
-        <v>275.1358112229096</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="G19" t="n">
-        <v>110.3984232438269</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="H19" t="n">
-        <v>110.3984232438269</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="I19" t="n">
-        <v>47.41718474356106</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="J19" t="n">
-        <v>106.5856360663958</v>
+        <v>193.1653212310857</v>
       </c>
       <c r="K19" t="n">
-        <v>203.817577419852</v>
+        <v>290.3972625845418</v>
       </c>
       <c r="L19" t="n">
-        <v>487.8492277029595</v>
+        <v>487.8492277029591</v>
       </c>
       <c r="M19" t="n">
         <v>1074.636888904527</v>
       </c>
       <c r="N19" t="n">
-        <v>1644.963396976314</v>
+        <v>1644.963396976313</v>
       </c>
       <c r="O19" t="n">
         <v>2182.923900049007</v>
@@ -5694,31 +5694,31 @@
         <v>2284.142503160617</v>
       </c>
       <c r="Q19" t="n">
-        <v>2354.221017386493</v>
+        <v>2354.221017386492</v>
       </c>
       <c r="R19" t="n">
-        <v>2370.859237178053</v>
+        <v>2370.859237178052</v>
       </c>
       <c r="S19" t="n">
-        <v>2370.859237178053</v>
+        <v>2226.498790017747</v>
       </c>
       <c r="T19" t="n">
-        <v>2128.628217008255</v>
+        <v>2061.758617036906</v>
       </c>
       <c r="U19" t="n">
-        <v>1850.241791915637</v>
+        <v>1783.372191944289</v>
       </c>
       <c r="V19" t="n">
-        <v>1624.670617397135</v>
+        <v>1496.41668381472</v>
       </c>
       <c r="W19" t="n">
-        <v>1624.670617397135</v>
+        <v>1224.390279401011</v>
       </c>
       <c r="X19" t="n">
-        <v>1379.278862730547</v>
+        <v>978.9985247344239</v>
       </c>
       <c r="Y19" t="n">
-        <v>1151.859192044656</v>
+        <v>751.5788540485321</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1180.813699990843</v>
+        <v>1732.825424840968</v>
       </c>
       <c r="C20" t="n">
-        <v>742.6712271742667</v>
+        <v>1294.682952024391</v>
       </c>
       <c r="D20" t="n">
-        <v>306.7614423487112</v>
+        <v>858.7731671988358</v>
       </c>
       <c r="E20" t="n">
-        <v>306.7614423487112</v>
+        <v>424.998422357131</v>
       </c>
       <c r="F20" t="n">
-        <v>47.41718474356106</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="G20" t="n">
-        <v>47.41718474356106</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="H20" t="n">
-        <v>47.41718474356106</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="I20" t="n">
-        <v>118.9365917639706</v>
+        <v>118.9365917639705</v>
       </c>
       <c r="J20" t="n">
-        <v>277.2866545754684</v>
+        <v>277.2866545754686</v>
       </c>
       <c r="K20" t="n">
-        <v>514.6123507107054</v>
+        <v>514.6123507107056</v>
       </c>
       <c r="L20" t="n">
-        <v>809.0358625400454</v>
+        <v>809.0358625400456</v>
       </c>
       <c r="M20" t="n">
         <v>1136.638748787553</v>
@@ -5776,28 +5776,28 @@
         <v>2253.662139923805</v>
       </c>
       <c r="R20" t="n">
-        <v>2370.859237178053</v>
+        <v>2370.859237178052</v>
       </c>
       <c r="S20" t="n">
-        <v>2370.859237178053</v>
+        <v>2370.859237178052</v>
       </c>
       <c r="T20" t="n">
-        <v>2370.859237178053</v>
+        <v>2159.124995325876</v>
       </c>
       <c r="U20" t="n">
-        <v>2370.859237178053</v>
+        <v>2159.124995325876</v>
       </c>
       <c r="V20" t="n">
-        <v>2008.242287111879</v>
+        <v>2159.124995325876</v>
       </c>
       <c r="W20" t="n">
-        <v>2008.242287111879</v>
+        <v>2159.124995325876</v>
       </c>
       <c r="X20" t="n">
-        <v>1589.09982369119</v>
+        <v>2159.124995325876</v>
       </c>
       <c r="Y20" t="n">
-        <v>1180.813699990843</v>
+        <v>2159.124995325876</v>
       </c>
     </row>
     <row r="21">
@@ -5822,28 +5822,28 @@
         <v>163.6827234637261</v>
       </c>
       <c r="G21" t="n">
-        <v>79.31614662250912</v>
+        <v>79.31614662250911</v>
       </c>
       <c r="H21" t="n">
-        <v>47.41718474356106</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="I21" t="n">
-        <v>74.36658772664265</v>
+        <v>81.78656726718469</v>
       </c>
       <c r="J21" t="n">
-        <v>168.6788003306397</v>
+        <v>176.0987798711818</v>
       </c>
       <c r="K21" t="n">
-        <v>329.8733934990794</v>
+        <v>337.2933730396215</v>
       </c>
       <c r="L21" t="n">
-        <v>546.6194166623901</v>
+        <v>554.0393962029322</v>
       </c>
       <c r="M21" t="n">
-        <v>799.5518024445223</v>
+        <v>806.9717819850644</v>
       </c>
       <c r="N21" t="n">
-        <v>1059.178555854504</v>
+        <v>1066.598535395046</v>
       </c>
       <c r="O21" t="n">
         <v>1296.686313021258</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>626.6298353008929</v>
+        <v>926.4729231895654</v>
       </c>
       <c r="C22" t="n">
-        <v>454.0681237841178</v>
+        <v>753.9112116727904</v>
       </c>
       <c r="D22" t="n">
-        <v>454.0681237841178</v>
+        <v>753.9112116727904</v>
       </c>
       <c r="E22" t="n">
-        <v>284.3101200348551</v>
+        <v>584.1532079235276</v>
       </c>
       <c r="F22" t="n">
-        <v>242.7087659062011</v>
+        <v>407.4461538852838</v>
       </c>
       <c r="G22" t="n">
         <v>242.7087659062011</v>
@@ -5907,55 +5907,55 @@
         <v>110.3984232438269</v>
       </c>
       <c r="I22" t="n">
-        <v>47.41718474356106</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="J22" t="n">
-        <v>193.1653212310857</v>
+        <v>106.5856360663958</v>
       </c>
       <c r="K22" t="n">
-        <v>565.1557171556774</v>
+        <v>203.8175774198519</v>
       </c>
       <c r="L22" t="n">
-        <v>739.3257020644089</v>
+        <v>328.2409865665203</v>
       </c>
       <c r="M22" t="n">
-        <v>1326.113363265977</v>
+        <v>915.0286477680883</v>
       </c>
       <c r="N22" t="n">
-        <v>1896.439871337763</v>
+        <v>1485.355155839874</v>
       </c>
       <c r="O22" t="n">
-        <v>2014.731125184675</v>
+        <v>1835.417006078665</v>
       </c>
       <c r="P22" t="n">
-        <v>2115.949728296286</v>
+        <v>2284.142503160617</v>
       </c>
       <c r="Q22" t="n">
-        <v>2354.221017386493</v>
+        <v>2354.221017386492</v>
       </c>
       <c r="R22" t="n">
-        <v>2370.859237178053</v>
+        <v>2370.859237178052</v>
       </c>
       <c r="S22" t="n">
-        <v>2370.859237178053</v>
+        <v>2226.498790017747</v>
       </c>
       <c r="T22" t="n">
-        <v>2128.628217008255</v>
+        <v>1984.267769847949</v>
       </c>
       <c r="U22" t="n">
-        <v>1850.241791915637</v>
+        <v>1705.881344755332</v>
       </c>
       <c r="V22" t="n">
-        <v>1563.286283786068</v>
+        <v>1635.709700988848</v>
       </c>
       <c r="W22" t="n">
-        <v>1291.259879372359</v>
+        <v>1363.68329657514</v>
       </c>
       <c r="X22" t="n">
-        <v>1045.868124705772</v>
+        <v>1118.291541908553</v>
       </c>
       <c r="Y22" t="n">
-        <v>818.44845401988</v>
+        <v>1118.291541908553</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1367.694830652856</v>
+        <v>1636.871405256556</v>
       </c>
       <c r="C23" t="n">
-        <v>929.5523578362796</v>
+        <v>1592.774245944319</v>
       </c>
       <c r="D23" t="n">
-        <v>493.6425730107241</v>
+        <v>1156.864461118763</v>
       </c>
       <c r="E23" t="n">
-        <v>59.8678281690193</v>
+        <v>1156.864461118763</v>
       </c>
       <c r="F23" t="n">
-        <v>59.8678281690193</v>
+        <v>728.9970315279711</v>
       </c>
       <c r="G23" t="n">
-        <v>59.8678281690193</v>
+        <v>329.5027947314255</v>
       </c>
       <c r="H23" t="n">
-        <v>59.8678281690193</v>
+        <v>59.86782816901931</v>
       </c>
       <c r="I23" t="n">
         <v>131.3872351894289</v>
@@ -5998,43 +5998,43 @@
         <v>1256.741193418422</v>
       </c>
       <c r="M23" t="n">
-        <v>1590.016855307408</v>
+        <v>1584.344079665929</v>
       </c>
       <c r="N23" t="n">
-        <v>1922.920698752674</v>
+        <v>1917.247923111195</v>
       </c>
       <c r="O23" t="n">
-        <v>2237.272358076443</v>
+        <v>2231.599582434964</v>
       </c>
       <c r="P23" t="n">
-        <v>2505.564226526605</v>
+        <v>2499.891450885126</v>
       </c>
       <c r="Q23" t="n">
-        <v>2707.040246443659</v>
+        <v>2707.04024644366</v>
       </c>
       <c r="R23" t="n">
-        <v>2993.391408450965</v>
+        <v>2993.391408450966</v>
       </c>
       <c r="S23" t="n">
-        <v>2993.391408450965</v>
+        <v>2953.117696130897</v>
       </c>
       <c r="T23" t="n">
-        <v>2781.657166598788</v>
+        <v>2741.383454278721</v>
       </c>
       <c r="U23" t="n">
-        <v>2522.58715148222</v>
+        <v>2482.313439162153</v>
       </c>
       <c r="V23" t="n">
-        <v>2159.970201416047</v>
+        <v>2482.313439162153</v>
       </c>
       <c r="W23" t="n">
-        <v>1775.980954353203</v>
+        <v>2482.313439162153</v>
       </c>
       <c r="X23" t="n">
-        <v>1775.980954353203</v>
+        <v>2063.170975741464</v>
       </c>
       <c r="Y23" t="n">
-        <v>1367.694830652856</v>
+        <v>2063.170975741464</v>
       </c>
     </row>
     <row r="24">
@@ -6059,13 +6059,13 @@
         <v>176.1333668891843</v>
       </c>
       <c r="G24" t="n">
-        <v>91.76679004796736</v>
+        <v>91.76679004796738</v>
       </c>
       <c r="H24" t="n">
-        <v>59.8678281690193</v>
+        <v>59.86782816901931</v>
       </c>
       <c r="I24" t="n">
-        <v>94.23721069264295</v>
+        <v>94.23721069264298</v>
       </c>
       <c r="J24" t="n">
         <v>188.54942329664</v>
@@ -6077,13 +6077,13 @@
         <v>566.4900396283904</v>
       </c>
       <c r="M24" t="n">
-        <v>812.0024458699805</v>
+        <v>819.4224254105226</v>
       </c>
       <c r="N24" t="n">
-        <v>1071.629199279963</v>
+        <v>1079.049178820505</v>
       </c>
       <c r="O24" t="n">
-        <v>1309.136956446716</v>
+        <v>1316.556935987258</v>
       </c>
       <c r="P24" t="n">
         <v>1499.757870626783</v>
@@ -6144,7 +6144,7 @@
         <v>122.8490666692852</v>
       </c>
       <c r="I25" t="n">
-        <v>59.8678281690193</v>
+        <v>59.86782816901931</v>
       </c>
       <c r="J25" t="n">
         <v>205.6159646565439</v>
@@ -6153,31 +6153,31 @@
         <v>577.6063605811356</v>
       </c>
       <c r="L25" t="n">
-        <v>938.305378636291</v>
+        <v>702.029769727804</v>
       </c>
       <c r="M25" t="n">
-        <v>1528.976285313107</v>
+        <v>1292.70067640462</v>
       </c>
       <c r="N25" t="n">
-        <v>2099.302793384893</v>
+        <v>1863.027184476406</v>
       </c>
       <c r="O25" t="n">
-        <v>2637.263296457587</v>
+        <v>2400.9876875491</v>
       </c>
       <c r="P25" t="n">
-        <v>2738.481899569197</v>
+        <v>2738.481899569198</v>
       </c>
       <c r="Q25" t="n">
-        <v>2976.753188659405</v>
+        <v>2976.753188659406</v>
       </c>
       <c r="R25" t="n">
-        <v>2993.391408450965</v>
+        <v>2993.391408450966</v>
       </c>
       <c r="S25" t="n">
-        <v>2849.030961290659</v>
+        <v>2849.030961290661</v>
       </c>
       <c r="T25" t="n">
-        <v>2606.799941120861</v>
+        <v>2606.799941120863</v>
       </c>
       <c r="U25" t="n">
         <v>2328.413516028245</v>
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2195.056497040194</v>
+        <v>2065.197226806055</v>
       </c>
       <c r="C26" t="n">
-        <v>1756.914024223618</v>
+        <v>1627.054753989478</v>
       </c>
       <c r="D26" t="n">
-        <v>1321.004239398062</v>
+        <v>1191.144969163923</v>
       </c>
       <c r="E26" t="n">
-        <v>887.2294945563572</v>
+        <v>757.3702243222178</v>
       </c>
       <c r="F26" t="n">
-        <v>459.3620649655649</v>
+        <v>329.5027947314255</v>
       </c>
       <c r="G26" t="n">
-        <v>59.86782816901933</v>
+        <v>329.5027947314255</v>
       </c>
       <c r="H26" t="n">
-        <v>59.86782816901933</v>
+        <v>59.86782816901931</v>
       </c>
       <c r="I26" t="n">
         <v>131.3872351894289</v>
       </c>
       <c r="J26" t="n">
-        <v>360.430472173823</v>
+        <v>724.9919854538447</v>
       </c>
       <c r="K26" t="n">
-        <v>597.7561683090599</v>
+        <v>962.3176815890816</v>
       </c>
       <c r="L26" t="n">
-        <v>892.1796801384</v>
+        <v>1256.741193418422</v>
       </c>
       <c r="M26" t="n">
-        <v>1219.782566385908</v>
+        <v>1584.344079665929</v>
       </c>
       <c r="N26" t="n">
-        <v>1552.686409831173</v>
+        <v>1917.247923111195</v>
       </c>
       <c r="O26" t="n">
-        <v>1867.038069154942</v>
+        <v>2231.599582434964</v>
       </c>
       <c r="P26" t="n">
-        <v>2135.329937605104</v>
+        <v>2499.891450885126</v>
       </c>
       <c r="Q26" t="n">
-        <v>2876.194311196718</v>
+        <v>2707.04024644366</v>
       </c>
       <c r="R26" t="n">
         <v>2993.391408450966</v>
       </c>
       <c r="S26" t="n">
-        <v>2993.391408450966</v>
+        <v>2953.117696130897</v>
       </c>
       <c r="T26" t="n">
-        <v>2993.391408450966</v>
+        <v>2741.383454278721</v>
       </c>
       <c r="U26" t="n">
-        <v>2993.391408450966</v>
+        <v>2482.313439162153</v>
       </c>
       <c r="V26" t="n">
-        <v>2630.774458384793</v>
+        <v>2470.052681395022</v>
       </c>
       <c r="W26" t="n">
-        <v>2225.919003795826</v>
+        <v>2065.197226806055</v>
       </c>
       <c r="X26" t="n">
-        <v>2225.919003795826</v>
+        <v>2065.197226806055</v>
       </c>
       <c r="Y26" t="n">
-        <v>2195.056497040194</v>
+        <v>2065.197226806055</v>
       </c>
     </row>
     <row r="27">
@@ -6284,7 +6284,7 @@
         <v>555.1843699628735</v>
       </c>
       <c r="C27" t="n">
-        <v>448.7279087995158</v>
+        <v>448.7279087995157</v>
       </c>
       <c r="D27" t="n">
         <v>353.637619946069</v>
@@ -6296,13 +6296,13 @@
         <v>176.1333668891843</v>
       </c>
       <c r="G27" t="n">
-        <v>91.76679004796739</v>
+        <v>91.76679004796738</v>
       </c>
       <c r="H27" t="n">
-        <v>59.86782816901933</v>
+        <v>59.86782816901931</v>
       </c>
       <c r="I27" t="n">
-        <v>86.81723115210092</v>
+        <v>86.81723115210093</v>
       </c>
       <c r="J27" t="n">
         <v>181.129443756098</v>
@@ -6363,16 +6363,16 @@
         <v>1104.801559413501</v>
       </c>
       <c r="C28" t="n">
-        <v>932.2398478967262</v>
+        <v>932.2398478967259</v>
       </c>
       <c r="D28" t="n">
-        <v>766.361855098249</v>
+        <v>766.3618550982485</v>
       </c>
       <c r="E28" t="n">
-        <v>596.6038513489862</v>
+        <v>596.6038513489858</v>
       </c>
       <c r="F28" t="n">
-        <v>419.8967973107424</v>
+        <v>419.896797310742</v>
       </c>
       <c r="G28" t="n">
         <v>255.1594093316593</v>
@@ -6381,28 +6381,28 @@
         <v>122.8490666692852</v>
       </c>
       <c r="I28" t="n">
-        <v>59.86782816901933</v>
+        <v>59.86782816901931</v>
       </c>
       <c r="J28" t="n">
         <v>119.0362794918541</v>
       </c>
       <c r="K28" t="n">
-        <v>216.3579686156534</v>
+        <v>216.3579686156525</v>
       </c>
       <c r="L28" t="n">
-        <v>758.9912595302828</v>
+        <v>758.9912595302819</v>
       </c>
       <c r="M28" t="n">
-        <v>1349.662166207099</v>
+        <v>1349.662166207098</v>
       </c>
       <c r="N28" t="n">
-        <v>1919.988674278885</v>
+        <v>1919.988674278884</v>
       </c>
       <c r="O28" t="n">
-        <v>2457.949177351579</v>
+        <v>2457.949177351578</v>
       </c>
       <c r="P28" t="n">
-        <v>2906.674674433531</v>
+        <v>2906.67467443353</v>
       </c>
       <c r="Q28" t="n">
         <v>2976.753188659406</v>
@@ -6417,13 +6417,13 @@
         <v>2606.799941120863</v>
       </c>
       <c r="U28" t="n">
-        <v>2328.413516028246</v>
+        <v>2328.413516028245</v>
       </c>
       <c r="V28" t="n">
         <v>2041.458007898676</v>
       </c>
       <c r="W28" t="n">
-        <v>1769.431603484968</v>
+        <v>1769.431603484967</v>
       </c>
       <c r="X28" t="n">
         <v>1524.03984881838</v>
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1767.189067449402</v>
+        <v>1756.914024223618</v>
       </c>
       <c r="C29" t="n">
-        <v>1329.046594632825</v>
+        <v>1756.914024223618</v>
       </c>
       <c r="D29" t="n">
-        <v>893.1368098072696</v>
+        <v>1321.004239398062</v>
       </c>
       <c r="E29" t="n">
-        <v>459.3620649655649</v>
+        <v>887.2294945563572</v>
       </c>
       <c r="F29" t="n">
         <v>459.3620649655649</v>
@@ -6466,22 +6466,22 @@
         <v>724.9919854538447</v>
       </c>
       <c r="K29" t="n">
-        <v>962.3176815890816</v>
+        <v>967.9904572305618</v>
       </c>
       <c r="L29" t="n">
-        <v>1256.741193418422</v>
+        <v>1262.413969059902</v>
       </c>
       <c r="M29" t="n">
-        <v>1584.344079665929</v>
+        <v>1590.01685530741</v>
       </c>
       <c r="N29" t="n">
-        <v>1917.247923111195</v>
+        <v>1922.920698752675</v>
       </c>
       <c r="O29" t="n">
-        <v>2231.599582434964</v>
+        <v>2237.272358076444</v>
       </c>
       <c r="P29" t="n">
-        <v>2499.891450885126</v>
+        <v>2505.564226526606</v>
       </c>
       <c r="Q29" t="n">
         <v>2707.040246443661</v>
@@ -6490,25 +6490,25 @@
         <v>2993.391408450966</v>
       </c>
       <c r="S29" t="n">
-        <v>2993.391408450966</v>
+        <v>2953.117696130898</v>
       </c>
       <c r="T29" t="n">
-        <v>2781.657166598789</v>
+        <v>2741.383454278721</v>
       </c>
       <c r="U29" t="n">
-        <v>2534.661472104542</v>
+        <v>2741.383454278721</v>
       </c>
       <c r="V29" t="n">
-        <v>2172.044522038369</v>
+        <v>2580.911942233273</v>
       </c>
       <c r="W29" t="n">
-        <v>1767.189067449402</v>
+        <v>2176.056487644307</v>
       </c>
       <c r="X29" t="n">
-        <v>1767.189067449402</v>
+        <v>1756.914024223618</v>
       </c>
       <c r="Y29" t="n">
-        <v>1767.189067449402</v>
+        <v>1756.914024223618</v>
       </c>
     </row>
     <row r="30">
@@ -6539,10 +6539,10 @@
         <v>59.86782816901933</v>
       </c>
       <c r="I30" t="n">
-        <v>86.81723115210092</v>
+        <v>94.23721069264298</v>
       </c>
       <c r="J30" t="n">
-        <v>181.129443756098</v>
+        <v>188.54942329664</v>
       </c>
       <c r="K30" t="n">
         <v>342.3240369245377</v>
@@ -6600,7 +6600,7 @@
         <v>1104.801559413501</v>
       </c>
       <c r="C31" t="n">
-        <v>932.2398478967258</v>
+        <v>932.2398478967257</v>
       </c>
       <c r="D31" t="n">
         <v>766.3618550982485</v>
@@ -6612,7 +6612,7 @@
         <v>419.8967973107419</v>
       </c>
       <c r="G31" t="n">
-        <v>255.1594093316592</v>
+        <v>255.1594093316594</v>
       </c>
       <c r="H31" t="n">
         <v>122.8490666692852</v>
@@ -6624,22 +6624,22 @@
         <v>119.0362794918541</v>
       </c>
       <c r="K31" t="n">
-        <v>216.3579686156534</v>
+        <v>216.2682208453102</v>
       </c>
       <c r="L31" t="n">
-        <v>758.9912595302828</v>
+        <v>758.9015117599397</v>
       </c>
       <c r="M31" t="n">
-        <v>1349.662166207099</v>
+        <v>1349.572418436756</v>
       </c>
       <c r="N31" t="n">
-        <v>1919.988674278885</v>
+        <v>1919.898926508542</v>
       </c>
       <c r="O31" t="n">
-        <v>2457.949177351579</v>
+        <v>2457.859429581235</v>
       </c>
       <c r="P31" t="n">
-        <v>2906.674674433531</v>
+        <v>2906.584926663188</v>
       </c>
       <c r="Q31" t="n">
         <v>2976.753188659406</v>
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1795.562260243649</v>
+        <v>1711.410365395633</v>
       </c>
       <c r="C32" t="n">
-        <v>1357.419787427072</v>
+        <v>1273.267892579056</v>
       </c>
       <c r="D32" t="n">
-        <v>921.5100026015164</v>
+        <v>837.3581077535005</v>
       </c>
       <c r="E32" t="n">
-        <v>487.7352577598116</v>
+        <v>837.3581077535005</v>
       </c>
       <c r="F32" t="n">
-        <v>59.86782816901933</v>
+        <v>409.4906781627082</v>
       </c>
       <c r="G32" t="n">
-        <v>59.86782816901933</v>
+        <v>329.5027947314255</v>
       </c>
       <c r="H32" t="n">
-        <v>59.86782816901933</v>
+        <v>59.86782816901931</v>
       </c>
       <c r="I32" t="n">
         <v>131.3872351894289</v>
       </c>
       <c r="J32" t="n">
-        <v>724.9919854538447</v>
+        <v>360.4304721738228</v>
       </c>
       <c r="K32" t="n">
-        <v>962.3176815890816</v>
+        <v>597.7561683090597</v>
       </c>
       <c r="L32" t="n">
-        <v>1256.741193418422</v>
+        <v>892.1796801383997</v>
       </c>
       <c r="M32" t="n">
-        <v>1584.344079665929</v>
+        <v>1219.782566385908</v>
       </c>
       <c r="N32" t="n">
-        <v>1917.247923111195</v>
+        <v>1552.686409831173</v>
       </c>
       <c r="O32" t="n">
-        <v>2231.599582434964</v>
+        <v>1867.038069154942</v>
       </c>
       <c r="P32" t="n">
-        <v>2499.891450885126</v>
+        <v>2135.329937605103</v>
       </c>
       <c r="Q32" t="n">
-        <v>2707.040246443661</v>
+        <v>2876.194311196717</v>
       </c>
       <c r="R32" t="n">
         <v>2993.391408450966</v>
       </c>
       <c r="S32" t="n">
-        <v>2993.391408450966</v>
+        <v>2953.117696130897</v>
       </c>
       <c r="T32" t="n">
-        <v>2781.657166598789</v>
+        <v>2741.383454278721</v>
       </c>
       <c r="U32" t="n">
-        <v>2641.004294149246</v>
+        <v>2482.313439162153</v>
       </c>
       <c r="V32" t="n">
-        <v>2641.004294149246</v>
+        <v>2119.696489095979</v>
       </c>
       <c r="W32" t="n">
-        <v>2641.004294149246</v>
+        <v>2119.696489095979</v>
       </c>
       <c r="X32" t="n">
-        <v>2221.861830728556</v>
+        <v>2119.696489095979</v>
       </c>
       <c r="Y32" t="n">
-        <v>2221.861830728556</v>
+        <v>1711.410365395633</v>
       </c>
     </row>
     <row r="33">
@@ -6758,7 +6758,7 @@
         <v>555.1843699628735</v>
       </c>
       <c r="C33" t="n">
-        <v>448.7279087995158</v>
+        <v>448.7279087995157</v>
       </c>
       <c r="D33" t="n">
         <v>353.637619946069</v>
@@ -6770,25 +6770,25 @@
         <v>176.1333668891843</v>
       </c>
       <c r="G33" t="n">
-        <v>91.76679004796739</v>
+        <v>91.76679004796738</v>
       </c>
       <c r="H33" t="n">
-        <v>59.86782816901933</v>
+        <v>59.86782816901931</v>
       </c>
       <c r="I33" t="n">
         <v>94.23721069264298</v>
       </c>
       <c r="J33" t="n">
-        <v>188.5494232966401</v>
+        <v>188.54942329664</v>
       </c>
       <c r="K33" t="n">
         <v>349.7440164650798</v>
       </c>
       <c r="L33" t="n">
-        <v>566.4900396283905</v>
+        <v>566.4900396283904</v>
       </c>
       <c r="M33" t="n">
-        <v>819.4224254105227</v>
+        <v>819.4224254105226</v>
       </c>
       <c r="N33" t="n">
         <v>1079.049178820505</v>
@@ -6797,10 +6797,10 @@
         <v>1316.556935987258</v>
       </c>
       <c r="P33" t="n">
-        <v>1507.177850167325</v>
+        <v>1499.757870626783</v>
       </c>
       <c r="Q33" t="n">
-        <v>1634.602883156821</v>
+        <v>1627.182903616279</v>
       </c>
       <c r="R33" t="n">
         <v>1689.161627056332</v>
@@ -6837,16 +6837,16 @@
         <v>1104.801559413501</v>
       </c>
       <c r="C34" t="n">
-        <v>932.2398478967261</v>
+        <v>932.2398478967258</v>
       </c>
       <c r="D34" t="n">
-        <v>766.3618550982488</v>
+        <v>766.3618550982485</v>
       </c>
       <c r="E34" t="n">
-        <v>596.6038513489862</v>
+        <v>596.6038513489858</v>
       </c>
       <c r="F34" t="n">
-        <v>419.8967973107424</v>
+        <v>419.896797310742</v>
       </c>
       <c r="G34" t="n">
         <v>255.1594093316593</v>
@@ -6855,28 +6855,28 @@
         <v>122.8490666692852</v>
       </c>
       <c r="I34" t="n">
-        <v>59.86782816901933</v>
+        <v>59.86782816901931</v>
       </c>
       <c r="J34" t="n">
-        <v>119.1260272621973</v>
+        <v>119.0362794918541</v>
       </c>
       <c r="K34" t="n">
-        <v>216.3579686156534</v>
+        <v>216.2682208453102</v>
       </c>
       <c r="L34" t="n">
-        <v>758.9912595302828</v>
+        <v>758.9015117599397</v>
       </c>
       <c r="M34" t="n">
-        <v>1349.662166207099</v>
+        <v>1349.572418436756</v>
       </c>
       <c r="N34" t="n">
-        <v>1919.988674278885</v>
+        <v>1919.898926508542</v>
       </c>
       <c r="O34" t="n">
-        <v>2457.949177351579</v>
+        <v>2457.859429581235</v>
       </c>
       <c r="P34" t="n">
-        <v>2906.674674433531</v>
+        <v>2906.584926663188</v>
       </c>
       <c r="Q34" t="n">
         <v>2976.753188659406</v>
@@ -6885,19 +6885,19 @@
         <v>2993.391408450966</v>
       </c>
       <c r="S34" t="n">
-        <v>2849.030961290661</v>
+        <v>2849.03096129066</v>
       </c>
       <c r="T34" t="n">
-        <v>2606.799941120863</v>
+        <v>2606.799941120862</v>
       </c>
       <c r="U34" t="n">
-        <v>2328.413516028246</v>
+        <v>2328.413516028245</v>
       </c>
       <c r="V34" t="n">
         <v>2041.458007898676</v>
       </c>
       <c r="W34" t="n">
-        <v>1769.431603484968</v>
+        <v>1769.431603484967</v>
       </c>
       <c r="X34" t="n">
         <v>1524.03984881838</v>
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>755.1946241225439</v>
+        <v>1783.11161681819</v>
       </c>
       <c r="C35" t="n">
-        <v>317.0521513059672</v>
+        <v>1344.969144001614</v>
       </c>
       <c r="D35" t="n">
-        <v>317.0521513059672</v>
+        <v>909.0593591760581</v>
       </c>
       <c r="E35" t="n">
-        <v>317.0521513059672</v>
+        <v>475.2846143343533</v>
       </c>
       <c r="F35" t="n">
-        <v>317.0521513059672</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="G35" t="n">
-        <v>317.0521513059672</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="H35" t="n">
-        <v>47.41718474356106</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="I35" t="n">
         <v>118.9365917639706</v>
       </c>
       <c r="J35" t="n">
-        <v>277.2866545754685</v>
+        <v>277.2866545754686</v>
       </c>
       <c r="K35" t="n">
-        <v>514.6123507107055</v>
+        <v>514.6123507107056</v>
       </c>
       <c r="L35" t="n">
         <v>809.0358625400455</v>
@@ -6955,34 +6955,34 @@
         <v>1783.894251556588</v>
       </c>
       <c r="P35" t="n">
-        <v>2052.18612000675</v>
+        <v>2052.186120006749</v>
       </c>
       <c r="Q35" t="n">
-        <v>2253.662139923805</v>
+        <v>2253.662139923804</v>
       </c>
       <c r="R35" t="n">
-        <v>2370.859237178053</v>
+        <v>2370.859237178052</v>
       </c>
       <c r="S35" t="n">
-        <v>2370.859237178053</v>
+        <v>2370.859237178052</v>
       </c>
       <c r="T35" t="n">
-        <v>2350.09561589872</v>
+        <v>2370.859237178052</v>
       </c>
       <c r="U35" t="n">
-        <v>2350.09561589872</v>
+        <v>2370.859237178052</v>
       </c>
       <c r="V35" t="n">
-        <v>1987.478665832546</v>
+        <v>2370.859237178052</v>
       </c>
       <c r="W35" t="n">
-        <v>1582.62321124358</v>
+        <v>2370.859237178052</v>
       </c>
       <c r="X35" t="n">
-        <v>1163.48074782289</v>
+        <v>1951.716773757363</v>
       </c>
       <c r="Y35" t="n">
-        <v>755.1946241225439</v>
+        <v>1951.716773757363</v>
       </c>
     </row>
     <row r="36">
@@ -7007,34 +7007,34 @@
         <v>163.6827234637261</v>
       </c>
       <c r="G36" t="n">
-        <v>79.31614662250912</v>
+        <v>79.31614662250911</v>
       </c>
       <c r="H36" t="n">
-        <v>47.41718474356106</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="I36" t="n">
-        <v>81.78656726718471</v>
+        <v>81.78656726718469</v>
       </c>
       <c r="J36" t="n">
-        <v>176.0987798711818</v>
+        <v>168.6788003306397</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2933730396216</v>
+        <v>329.8733934990794</v>
       </c>
       <c r="L36" t="n">
-        <v>554.0393962029324</v>
+        <v>546.6194166623901</v>
       </c>
       <c r="M36" t="n">
-        <v>806.9717819850646</v>
+        <v>799.5518024445223</v>
       </c>
       <c r="N36" t="n">
-        <v>1066.598535395047</v>
+        <v>1059.178555854504</v>
       </c>
       <c r="O36" t="n">
-        <v>1304.1062925618</v>
+        <v>1296.686313021258</v>
       </c>
       <c r="P36" t="n">
-        <v>1494.727206741867</v>
+        <v>1487.307227201325</v>
       </c>
       <c r="Q36" t="n">
         <v>1614.73226019082</v>
@@ -7071,58 +7071,58 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>584.1532079235276</v>
+        <v>961.0435149891439</v>
       </c>
       <c r="C37" t="n">
-        <v>584.1532079235276</v>
+        <v>788.4818034723688</v>
       </c>
       <c r="D37" t="n">
-        <v>584.1532079235276</v>
+        <v>622.6038106738915</v>
       </c>
       <c r="E37" t="n">
-        <v>584.1532079235276</v>
+        <v>452.8458069246288</v>
       </c>
       <c r="F37" t="n">
-        <v>407.4461538852838</v>
+        <v>344.4649153850179</v>
       </c>
       <c r="G37" t="n">
-        <v>242.7087659062011</v>
+        <v>179.7275274059352</v>
       </c>
       <c r="H37" t="n">
-        <v>110.3984232438269</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="I37" t="n">
-        <v>47.41718474356106</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="J37" t="n">
-        <v>193.1653212310857</v>
+        <v>106.5856360663958</v>
       </c>
       <c r="K37" t="n">
-        <v>565.1557171556774</v>
+        <v>203.8175774198519</v>
       </c>
       <c r="L37" t="n">
-        <v>739.3257020644089</v>
+        <v>746.4508683344814</v>
       </c>
       <c r="M37" t="n">
-        <v>1326.113363265977</v>
+        <v>1333.238529536049</v>
       </c>
       <c r="N37" t="n">
-        <v>1896.439871337763</v>
+        <v>1903.565037607835</v>
       </c>
       <c r="O37" t="n">
-        <v>2014.731125184675</v>
+        <v>2182.923900049007</v>
       </c>
       <c r="P37" t="n">
-        <v>2115.949728296286</v>
+        <v>2284.142503160617</v>
       </c>
       <c r="Q37" t="n">
-        <v>2354.221017386493</v>
+        <v>2354.221017386492</v>
       </c>
       <c r="R37" t="n">
-        <v>2370.859237178053</v>
+        <v>2370.859237178052</v>
       </c>
       <c r="S37" t="n">
-        <v>2226.498790017748</v>
+        <v>2226.498790017747</v>
       </c>
       <c r="T37" t="n">
         <v>1984.267769847949</v>
@@ -7131,16 +7131,16 @@
         <v>1705.881344755332</v>
       </c>
       <c r="V37" t="n">
-        <v>1520.809656408702</v>
+        <v>1705.881344755332</v>
       </c>
       <c r="W37" t="n">
-        <v>1248.783251994994</v>
+        <v>1433.854940341623</v>
       </c>
       <c r="X37" t="n">
-        <v>1003.391497328407</v>
+        <v>1188.463185675036</v>
       </c>
       <c r="Y37" t="n">
-        <v>775.9718266425148</v>
+        <v>961.0435149891439</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1783.11161681819</v>
+        <v>919.3344024018426</v>
       </c>
       <c r="C38" t="n">
-        <v>1344.969144001614</v>
+        <v>481.1919295852659</v>
       </c>
       <c r="D38" t="n">
-        <v>909.0593591760581</v>
+        <v>481.1919295852659</v>
       </c>
       <c r="E38" t="n">
-        <v>475.2846143343533</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="F38" t="n">
-        <v>47.41718474356106</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="G38" t="n">
-        <v>47.41718474356106</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="H38" t="n">
-        <v>47.41718474356106</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="I38" t="n">
         <v>118.9365917639706</v>
@@ -7192,16 +7192,16 @@
         <v>1783.894251556588</v>
       </c>
       <c r="P38" t="n">
-        <v>2052.18612000675</v>
+        <v>2052.186120006749</v>
       </c>
       <c r="Q38" t="n">
-        <v>2253.662139923805</v>
+        <v>2253.662139923804</v>
       </c>
       <c r="R38" t="n">
-        <v>2370.859237178053</v>
+        <v>2370.859237178052</v>
       </c>
       <c r="S38" t="n">
-        <v>2370.859237178053</v>
+        <v>2370.859237178052</v>
       </c>
       <c r="T38" t="n">
         <v>2159.124995325876</v>
@@ -7213,13 +7213,13 @@
         <v>2159.124995325876</v>
       </c>
       <c r="W38" t="n">
-        <v>2159.124995325876</v>
+        <v>1764.77643630744</v>
       </c>
       <c r="X38" t="n">
-        <v>2159.124995325876</v>
+        <v>1345.63397288675</v>
       </c>
       <c r="Y38" t="n">
-        <v>2159.124995325876</v>
+        <v>1345.63397288675</v>
       </c>
     </row>
     <row r="39">
@@ -7244,31 +7244,31 @@
         <v>163.6827234637261</v>
       </c>
       <c r="G39" t="n">
-        <v>79.31614662250912</v>
+        <v>79.31614662250911</v>
       </c>
       <c r="H39" t="n">
-        <v>47.41718474356106</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="I39" t="n">
-        <v>81.78656726718471</v>
+        <v>81.78656726718469</v>
       </c>
       <c r="J39" t="n">
         <v>176.0987798711818</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2933730396216</v>
+        <v>337.2933730396215</v>
       </c>
       <c r="L39" t="n">
-        <v>554.0393962029324</v>
+        <v>554.0393962029322</v>
       </c>
       <c r="M39" t="n">
-        <v>806.9717819850646</v>
+        <v>806.9717819850644</v>
       </c>
       <c r="N39" t="n">
-        <v>1066.598535395047</v>
+        <v>1066.598535395046</v>
       </c>
       <c r="O39" t="n">
-        <v>1296.686313021258</v>
+        <v>1304.1062925618</v>
       </c>
       <c r="P39" t="n">
         <v>1487.307227201325</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>901.5076775454665</v>
+        <v>626.6298353008924</v>
       </c>
       <c r="C40" t="n">
-        <v>856.8079659710016</v>
+        <v>454.0681237841173</v>
       </c>
       <c r="D40" t="n">
-        <v>690.9299731725243</v>
+        <v>393.8822425310676</v>
       </c>
       <c r="E40" t="n">
-        <v>521.1719694232617</v>
+        <v>224.1242387818048</v>
       </c>
       <c r="F40" t="n">
-        <v>344.4649153850179</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="G40" t="n">
-        <v>179.7275274059352</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="H40" t="n">
-        <v>47.41718474356106</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="I40" t="n">
-        <v>47.41718474356106</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="J40" t="n">
-        <v>193.1653212310857</v>
+        <v>106.5856360663958</v>
       </c>
       <c r="K40" t="n">
-        <v>565.1557171556774</v>
+        <v>203.8175774198519</v>
       </c>
       <c r="L40" t="n">
-        <v>1107.789008070307</v>
+        <v>746.4508683344814</v>
       </c>
       <c r="M40" t="n">
-        <v>1238.97604756621</v>
+        <v>1333.238529536049</v>
       </c>
       <c r="N40" t="n">
-        <v>1367.043752480352</v>
+        <v>1903.565037607835</v>
       </c>
       <c r="O40" t="n">
-        <v>1667.224231214333</v>
+        <v>2182.923900049007</v>
       </c>
       <c r="P40" t="n">
-        <v>2115.949728296286</v>
+        <v>2284.142503160617</v>
       </c>
       <c r="Q40" t="n">
-        <v>2354.221017386493</v>
+        <v>2354.221017386492</v>
       </c>
       <c r="R40" t="n">
-        <v>2370.859237178053</v>
+        <v>2370.859237178052</v>
       </c>
       <c r="S40" t="n">
-        <v>2226.498790017748</v>
+        <v>2370.859237178052</v>
       </c>
       <c r="T40" t="n">
-        <v>1984.267769847949</v>
+        <v>2128.628217008254</v>
       </c>
       <c r="U40" t="n">
-        <v>1705.881344755332</v>
+        <v>1850.241791915637</v>
       </c>
       <c r="V40" t="n">
-        <v>1418.925836625762</v>
+        <v>1563.286283786067</v>
       </c>
       <c r="W40" t="n">
-        <v>1146.899432212054</v>
+        <v>1291.259879372359</v>
       </c>
       <c r="X40" t="n">
-        <v>901.5076775454665</v>
+        <v>1045.868124705771</v>
       </c>
       <c r="Y40" t="n">
-        <v>901.5076775454665</v>
+        <v>818.4484540198796</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1590.598645744645</v>
+        <v>1563.113120202844</v>
       </c>
       <c r="C41" t="n">
-        <v>1152.456172928068</v>
+        <v>1316.595951207367</v>
       </c>
       <c r="D41" t="n">
-        <v>716.5463881025128</v>
+        <v>880.6861663818114</v>
       </c>
       <c r="E41" t="n">
-        <v>716.5463881025128</v>
+        <v>446.9114215401066</v>
       </c>
       <c r="F41" t="n">
-        <v>716.5463881025128</v>
+        <v>446.9114215401066</v>
       </c>
       <c r="G41" t="n">
-        <v>317.0521513059672</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="H41" t="n">
-        <v>47.41718474356106</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="I41" t="n">
         <v>118.9365917639706</v>
       </c>
       <c r="J41" t="n">
-        <v>277.2866545754685</v>
+        <v>277.2866545754684</v>
       </c>
       <c r="K41" t="n">
-        <v>514.6123507107055</v>
+        <v>514.6123507107054</v>
       </c>
       <c r="L41" t="n">
-        <v>809.0358625400455</v>
+        <v>809.0358625400454</v>
       </c>
       <c r="M41" t="n">
         <v>1136.638748787553</v>
@@ -7429,34 +7429,34 @@
         <v>1783.894251556588</v>
       </c>
       <c r="P41" t="n">
-        <v>2052.18612000675</v>
+        <v>2052.186120006749</v>
       </c>
       <c r="Q41" t="n">
-        <v>2253.662139923805</v>
+        <v>2253.662139923804</v>
       </c>
       <c r="R41" t="n">
-        <v>2370.859237178053</v>
+        <v>2370.859237178052</v>
       </c>
       <c r="S41" t="n">
-        <v>2370.859237178053</v>
+        <v>2330.585524857984</v>
       </c>
       <c r="T41" t="n">
-        <v>2370.859237178053</v>
+        <v>2330.585524857984</v>
       </c>
       <c r="U41" t="n">
-        <v>2370.859237178053</v>
+        <v>2330.585524857984</v>
       </c>
       <c r="V41" t="n">
-        <v>2009.741109165334</v>
+        <v>1967.968574791811</v>
       </c>
       <c r="W41" t="n">
-        <v>2009.741109165334</v>
+        <v>1563.113120202844</v>
       </c>
       <c r="X41" t="n">
-        <v>1590.598645744645</v>
+        <v>1563.113120202844</v>
       </c>
       <c r="Y41" t="n">
-        <v>1590.598645744645</v>
+        <v>1563.113120202844</v>
       </c>
     </row>
     <row r="42">
@@ -7481,31 +7481,31 @@
         <v>163.6827234637261</v>
       </c>
       <c r="G42" t="n">
-        <v>79.31614662250912</v>
+        <v>79.31614662250911</v>
       </c>
       <c r="H42" t="n">
-        <v>47.41718474356106</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="I42" t="n">
-        <v>74.36658772664244</v>
+        <v>81.78656726718469</v>
       </c>
       <c r="J42" t="n">
-        <v>168.6788003306395</v>
+        <v>176.0987798711818</v>
       </c>
       <c r="K42" t="n">
-        <v>329.8733934990793</v>
+        <v>337.2933730396215</v>
       </c>
       <c r="L42" t="n">
-        <v>546.61941666239</v>
+        <v>554.0393962029322</v>
       </c>
       <c r="M42" t="n">
-        <v>799.5518024445222</v>
+        <v>806.9717819850644</v>
       </c>
       <c r="N42" t="n">
-        <v>1059.178555854504</v>
+        <v>1066.598535395046</v>
       </c>
       <c r="O42" t="n">
-        <v>1296.686313021258</v>
+        <v>1304.1062925618</v>
       </c>
       <c r="P42" t="n">
         <v>1487.307227201325</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>626.6298353008929</v>
+        <v>915.643861949799</v>
       </c>
       <c r="C43" t="n">
-        <v>454.0681237841178</v>
+        <v>743.0821504330239</v>
       </c>
       <c r="D43" t="n">
-        <v>288.1901309856405</v>
+        <v>577.2041576345466</v>
       </c>
       <c r="E43" t="n">
-        <v>118.4321272363778</v>
+        <v>407.4461538852838</v>
       </c>
       <c r="F43" t="n">
-        <v>47.41718474356106</v>
+        <v>407.4461538852838</v>
       </c>
       <c r="G43" t="n">
-        <v>47.41718474356106</v>
+        <v>242.7087659062011</v>
       </c>
       <c r="H43" t="n">
-        <v>47.41718474356106</v>
+        <v>110.3984232438269</v>
       </c>
       <c r="I43" t="n">
-        <v>47.41718474356106</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="J43" t="n">
-        <v>193.1653212310857</v>
+        <v>106.5856360663958</v>
       </c>
       <c r="K43" t="n">
-        <v>565.1557171556774</v>
+        <v>203.8175774198519</v>
       </c>
       <c r="L43" t="n">
-        <v>834.0776112517117</v>
+        <v>746.4508683344814</v>
       </c>
       <c r="M43" t="n">
-        <v>1420.86527245328</v>
+        <v>1333.238529536049</v>
       </c>
       <c r="N43" t="n">
-        <v>1548.932977367421</v>
+        <v>1903.565037607835</v>
       </c>
       <c r="O43" t="n">
-        <v>1667.224231214333</v>
+        <v>2182.923900049007</v>
       </c>
       <c r="P43" t="n">
-        <v>2115.949728296286</v>
+        <v>2284.142503160617</v>
       </c>
       <c r="Q43" t="n">
-        <v>2354.221017386493</v>
+        <v>2354.221017386492</v>
       </c>
       <c r="R43" t="n">
-        <v>2370.859237178053</v>
+        <v>2370.859237178052</v>
       </c>
       <c r="S43" t="n">
-        <v>2370.859237178053</v>
+        <v>2226.498790017747</v>
       </c>
       <c r="T43" t="n">
-        <v>2128.628217008255</v>
+        <v>2145.615839243452</v>
       </c>
       <c r="U43" t="n">
-        <v>1850.241791915637</v>
+        <v>1867.229414150835</v>
       </c>
       <c r="V43" t="n">
-        <v>1563.286283786068</v>
+        <v>1580.273906021265</v>
       </c>
       <c r="W43" t="n">
-        <v>1291.259879372359</v>
+        <v>1580.273906021265</v>
       </c>
       <c r="X43" t="n">
-        <v>1045.868124705772</v>
+        <v>1334.882151354678</v>
       </c>
       <c r="Y43" t="n">
-        <v>818.44845401988</v>
+        <v>1107.462480668786</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>516.8882302853087</v>
+        <v>716.5463881025128</v>
       </c>
       <c r="C44" t="n">
-        <v>78.74575746873205</v>
+        <v>716.5463881025128</v>
       </c>
       <c r="D44" t="n">
-        <v>78.74575746873205</v>
+        <v>716.5463881025128</v>
       </c>
       <c r="E44" t="n">
-        <v>78.74575746873205</v>
+        <v>716.5463881025128</v>
       </c>
       <c r="F44" t="n">
-        <v>78.74575746873205</v>
+        <v>716.5463881025128</v>
       </c>
       <c r="G44" t="n">
-        <v>78.74575746873205</v>
+        <v>317.0521513059672</v>
       </c>
       <c r="H44" t="n">
-        <v>47.41718474356106</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="I44" t="n">
         <v>118.9365917639705</v>
@@ -7651,13 +7651,13 @@
         <v>277.2866545754686</v>
       </c>
       <c r="K44" t="n">
-        <v>514.6123507107058</v>
+        <v>514.6123507107056</v>
       </c>
       <c r="L44" t="n">
-        <v>809.0358625400459</v>
+        <v>809.0358625400456</v>
       </c>
       <c r="M44" t="n">
-        <v>1136.638748787554</v>
+        <v>1136.638748787553</v>
       </c>
       <c r="N44" t="n">
         <v>1469.542592232819</v>
@@ -7672,28 +7672,28 @@
         <v>2253.662139923805</v>
       </c>
       <c r="R44" t="n">
-        <v>2370.859237178053</v>
+        <v>2370.859237178052</v>
       </c>
       <c r="S44" t="n">
-        <v>2370.859237178053</v>
+        <v>2370.859237178052</v>
       </c>
       <c r="T44" t="n">
-        <v>2370.859237178053</v>
+        <v>2165.66194040629</v>
       </c>
       <c r="U44" t="n">
-        <v>2111.789222061485</v>
+        <v>1906.591925289722</v>
       </c>
       <c r="V44" t="n">
-        <v>1749.172271995311</v>
+        <v>1543.974975223548</v>
       </c>
       <c r="W44" t="n">
-        <v>1344.316817406345</v>
+        <v>1543.974975223548</v>
       </c>
       <c r="X44" t="n">
-        <v>925.1743539856553</v>
+        <v>1124.832511802859</v>
       </c>
       <c r="Y44" t="n">
-        <v>516.8882302853087</v>
+        <v>716.5463881025128</v>
       </c>
     </row>
     <row r="45">
@@ -7718,31 +7718,31 @@
         <v>163.6827234637261</v>
       </c>
       <c r="G45" t="n">
-        <v>79.31614662250912</v>
+        <v>79.31614662250911</v>
       </c>
       <c r="H45" t="n">
-        <v>47.41718474356106</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="I45" t="n">
-        <v>74.36658772664244</v>
+        <v>81.78656726718469</v>
       </c>
       <c r="J45" t="n">
-        <v>168.6788003306395</v>
+        <v>176.0987798711818</v>
       </c>
       <c r="K45" t="n">
-        <v>329.8733934990793</v>
+        <v>337.2933730396215</v>
       </c>
       <c r="L45" t="n">
-        <v>546.61941666239</v>
+        <v>554.0393962029322</v>
       </c>
       <c r="M45" t="n">
-        <v>799.5518024445222</v>
+        <v>806.9717819850644</v>
       </c>
       <c r="N45" t="n">
-        <v>1059.178555854504</v>
+        <v>1066.598535395046</v>
       </c>
       <c r="O45" t="n">
-        <v>1296.686313021258</v>
+        <v>1304.1062925618</v>
       </c>
       <c r="P45" t="n">
         <v>1487.307227201325</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>482.2693881405876</v>
+        <v>1092.350915988043</v>
       </c>
       <c r="C46" t="n">
-        <v>482.2693881405876</v>
+        <v>919.7892044712677</v>
       </c>
       <c r="D46" t="n">
-        <v>419.4158199444448</v>
+        <v>753.9112116727904</v>
       </c>
       <c r="E46" t="n">
-        <v>419.4158199444448</v>
+        <v>584.1532079235276</v>
       </c>
       <c r="F46" t="n">
-        <v>242.7087659062011</v>
+        <v>407.4461538852838</v>
       </c>
       <c r="G46" t="n">
         <v>242.7087659062011</v>
@@ -7803,22 +7803,22 @@
         <v>110.3984232438269</v>
       </c>
       <c r="I46" t="n">
-        <v>47.41718474356106</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="J46" t="n">
-        <v>193.1653212310857</v>
+        <v>106.5856360663958</v>
       </c>
       <c r="K46" t="n">
-        <v>363.425818556291</v>
+        <v>203.8175774198519</v>
       </c>
       <c r="L46" t="n">
-        <v>487.8492277029595</v>
+        <v>487.8492277029591</v>
       </c>
       <c r="M46" t="n">
         <v>1074.636888904527</v>
       </c>
       <c r="N46" t="n">
-        <v>1644.963396976314</v>
+        <v>1644.963396976313</v>
       </c>
       <c r="O46" t="n">
         <v>2182.923900049007</v>
@@ -7827,13 +7827,13 @@
         <v>2284.142503160617</v>
       </c>
       <c r="Q46" t="n">
-        <v>2354.221017386493</v>
+        <v>2354.221017386492</v>
       </c>
       <c r="R46" t="n">
-        <v>2370.859237178053</v>
+        <v>2370.859237178052</v>
       </c>
       <c r="S46" t="n">
-        <v>2226.498790017748</v>
+        <v>2226.498790017747</v>
       </c>
       <c r="T46" t="n">
         <v>1984.267769847949</v>
@@ -7842,16 +7842,16 @@
         <v>1705.881344755332</v>
       </c>
       <c r="V46" t="n">
-        <v>1418.925836625762</v>
+        <v>1565.162341340522</v>
       </c>
       <c r="W46" t="n">
-        <v>1146.899432212054</v>
+        <v>1565.162341340522</v>
       </c>
       <c r="X46" t="n">
-        <v>901.5076775454665</v>
+        <v>1319.770586673935</v>
       </c>
       <c r="Y46" t="n">
-        <v>674.0880068595748</v>
+        <v>1092.350915988043</v>
       </c>
     </row>
   </sheetData>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>21.75440028723776</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>11.14042390876192</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>36.94091896479665</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8613,13 +8613,13 @@
         <v>37.13925100285415</v>
       </c>
       <c r="K10" t="n">
-        <v>34.45295969778793</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>32.53395007869803</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9116767238302828</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -8628,10 +8628,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>31.52930186393523</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>36.36928463638102</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8853,19 +8853,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>460.2026481875401</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>183.7264897849186</v>
       </c>
       <c r="P13" t="n">
-        <v>50.24906642632641</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821538</v>
@@ -9090,19 +9090,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>50.24906642632641</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>460.2026481875401</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>183.7264897849182</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821538</v>
@@ -9321,16 +9321,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>161.2204455923627</v>
+        <v>73.76621815328178</v>
       </c>
       <c r="M19" t="n">
-        <v>460.2026481875401</v>
+        <v>460.20264818754</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>50.24906642632641</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>460.2026481875401</v>
+        <v>460.20264818754</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>234.1117135271502</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>5.730076405533964</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>5.730076405534874</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9801,7 +9801,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>238.662231220694</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645587</v>
@@ -9813,7 +9813,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>238.662231220695</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>71.40724663928916</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>544.8367208833929</v>
+        <v>5.730076405534874</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.09065431347795538</v>
+        <v>0.09065431347707431</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
@@ -10114,7 +10114,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>5.730076405535556</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>5.730076405535328</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10272,7 +10272,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.09065431347795538</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
@@ -10290,7 +10290,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>0.09065431347744379</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>71.40724663928899</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>5.730076405535328</v>
+        <v>544.8367208833929</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.09065431347795538</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -10527,7 +10527,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>0.09065431347698905</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>50.24906642632641</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>460.2026481875401</v>
+        <v>460.2026481875399</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>162.6945541356156</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>460.2026481875399</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>183.7264897849188</v>
+        <v>162.6945541356156</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>145.9580656054202</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>460.2026481875401</v>
+        <v>460.2026481875399</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>162.6945541356156</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,16 +11454,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>73.76621815328201</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>161.2204455923625</v>
       </c>
       <c r="M46" t="n">
-        <v>460.2026481875401</v>
+        <v>460.20264818754</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>280.5244420459323</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>39.87097519686765</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>221.5374816960947</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>62.35142611526319</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9168426887021</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>257.5433334054432</v>
+        <v>100.327342946874</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>230.3401137385371</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.245319131373606</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>266.9386168967821</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>39.87097519686765</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.616899433655</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4793149654022</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>158.9037337969156</v>
       </c>
       <c r="G16" t="n">
-        <v>21.24209616809472</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.3514261152632</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,10 +23706,10 @@
         <v>142.9168426887021</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>239.8087099681002</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6025608416909</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>271.867758824342</v>
+        <v>272.3911935845058</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.49929442858</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>266.9386168967821</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>39.87097519686766</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4793149654022</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0900140992919</v>
       </c>
       <c r="H19" t="n">
         <v>130.9872392357504</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.3514261152632</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,19 +23940,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9168426887021</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>76.71593871706787</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>60.77049027495647</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,10 +23977,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>166.8379402657857</v>
+        <v>49.78333005745009</v>
       </c>
       <c r="G20" t="n">
         <v>395.49929442858</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>39.87097519686765</v>
+        <v>39.87097519686766</v>
       </c>
       <c r="T20" t="n">
-        <v>209.616899433655</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>256.4793149654022</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24138,10 +24138,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>133.7546429104939</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0900140992919</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9168426887021</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>214.6160257194555</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>390.1048603692961</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>395.49929442858</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>266.9386168967821</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>39.87097519686765</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,16 +24265,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>20.65754545086168</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.49929442858</v>
       </c>
       <c r="H26" t="n">
-        <v>266.9386168967821</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>39.87097519686765</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.616899433655</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4793149654022</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.852630376052</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>373.6493807752676</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24682,7 +24682,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24691,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>39.87097519686765</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>11.95357741609732</v>
+        <v>256.4793149654022</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>200.1239836405182</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,16 +24925,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>395.49929442858</v>
+        <v>316.3112898316102</v>
       </c>
       <c r="H32" t="n">
-        <v>266.9386168967821</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>39.87097519686765</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>117.2329712403538</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>255.1174694102775</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>395.49929442858</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>266.9386168967821</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>39.87097519686765</v>
+        <v>39.87097519686766</v>
       </c>
       <c r="T35" t="n">
-        <v>189.0609143671152</v>
+        <v>209.616899433655</v>
       </c>
       <c r="U35" t="n">
         <v>256.4793149654022</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>67.64290087364655</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.3514261152632</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>100.8649815851106</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>49.78333005744963</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>395.49929442858</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>39.87097519686765</v>
+        <v>39.87097519686766</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25453,10 +25453,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>10.40182661482544</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>126.583379942887</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>104.6351904299733</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0900140992919</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>130.9872392357504</v>
       </c>
       <c r="I40" t="n">
-        <v>62.35142611526319</v>
+        <v>62.3514261152632</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9168426887021</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,13 +25630,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>189.7090507828887</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>266.9386168967821</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>39.87097519686765</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>209.616899433655</v>
@@ -25687,13 +25687,13 @@
         <v>256.4793149654022</v>
       </c>
       <c r="V41" t="n">
-        <v>1.483833832920482</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>104.6351904299728</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0900140992919</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>130.9872392357504</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>62.35142611526319</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9168426887021</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>159.7345887015483</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25867,7 +25867,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -25879,10 +25879,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.49929442858</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>235.9233298988628</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>39.87097519686765</v>
+        <v>39.87097519686766</v>
       </c>
       <c r="T44" t="n">
-        <v>209.616899433655</v>
+        <v>6.471575629610157</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25927,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>101.9941803563111</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0900140992919</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>144.7741396676124</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>308122.7636810664</v>
+        <v>308122.7636810663</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>308122.7636810664</v>
+        <v>308122.7636810663</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>394731.5291324593</v>
+        <v>394731.5291324591</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>394731.5291324591</v>
+        <v>394731.5291324592</v>
       </c>
     </row>
     <row r="13">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431792.3221340781</v>
+        <v>431792.322134078</v>
       </c>
       <c r="C2" t="n">
         <v>431792.3221340781</v>
       </c>
       <c r="D2" t="n">
-        <v>442321.5389095869</v>
+        <v>442321.5389095868</v>
       </c>
       <c r="E2" t="n">
         <v>260440.0516755136</v>
@@ -26328,34 +26328,34 @@
         <v>260440.0516755136</v>
       </c>
       <c r="G2" t="n">
-        <v>260440.0516755136</v>
+        <v>260440.0516755135</v>
       </c>
       <c r="H2" t="n">
         <v>260440.0516755136</v>
       </c>
       <c r="I2" t="n">
-        <v>312062.2831787842</v>
+        <v>312062.2831787844</v>
       </c>
       <c r="J2" t="n">
-        <v>312062.2831787842</v>
+        <v>312062.2831787843</v>
       </c>
       <c r="K2" t="n">
         <v>312062.2831787843</v>
       </c>
       <c r="L2" t="n">
-        <v>312062.2831787843</v>
+        <v>312062.2831787842</v>
       </c>
       <c r="M2" t="n">
-        <v>260440.0516755136</v>
+        <v>260440.0516755135</v>
       </c>
       <c r="N2" t="n">
-        <v>260440.0516755136</v>
+        <v>260440.0516755135</v>
       </c>
       <c r="O2" t="n">
-        <v>260440.0516755136</v>
+        <v>260440.0516755135</v>
       </c>
       <c r="P2" t="n">
-        <v>260440.0516755136</v>
+        <v>260440.0516755135</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>40883.89454475579</v>
       </c>
       <c r="E3" t="n">
-        <v>514944.3509551201</v>
+        <v>514944.35095512</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>41386.094379266</v>
+        <v>41386.09437926609</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>10456.45543630176</v>
+        <v>10456.45543630172</v>
       </c>
       <c r="M3" t="n">
-        <v>98626.66051350009</v>
+        <v>98626.66051350006</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>294349.6920770005</v>
+        <v>294349.6920770006</v>
       </c>
       <c r="E4" t="n">
         <v>16583.60067171038</v>
       </c>
       <c r="F4" t="n">
-        <v>16583.60067171038</v>
+        <v>16583.60067171037</v>
       </c>
       <c r="G4" t="n">
-        <v>16583.60067171038</v>
+        <v>16583.60067171037</v>
       </c>
       <c r="H4" t="n">
-        <v>16583.60067171038</v>
+        <v>16583.60067171037</v>
       </c>
       <c r="I4" t="n">
-        <v>45408.65875017075</v>
+        <v>45408.6587501708</v>
       </c>
       <c r="J4" t="n">
-        <v>45408.65875017084</v>
+        <v>45408.6587501708</v>
       </c>
       <c r="K4" t="n">
-        <v>45408.65875017082</v>
+        <v>45408.65875017083</v>
       </c>
       <c r="L4" t="n">
-        <v>45408.65875017082</v>
+        <v>45408.65875017083</v>
       </c>
       <c r="M4" t="n">
         <v>16583.60067171038</v>
@@ -26459,7 +26459,7 @@
         <v>16583.60067171038</v>
       </c>
       <c r="P4" t="n">
-        <v>16583.60067171038</v>
+        <v>16583.60067171037</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>36853.56981021012</v>
       </c>
       <c r="E5" t="n">
-        <v>46256.55073973801</v>
+        <v>46256.550739738</v>
       </c>
       <c r="F5" t="n">
-        <v>46256.55073973801</v>
+        <v>46256.55073973799</v>
       </c>
       <c r="G5" t="n">
-        <v>46256.55073973801</v>
+        <v>46256.550739738</v>
       </c>
       <c r="H5" t="n">
-        <v>46256.55073973801</v>
+        <v>46256.550739738</v>
       </c>
       <c r="I5" t="n">
-        <v>55719.03974308626</v>
+        <v>55719.03974308628</v>
       </c>
       <c r="J5" t="n">
-        <v>55719.03974308629</v>
+        <v>55719.03974308628</v>
       </c>
       <c r="K5" t="n">
         <v>55719.03974308629</v>
       </c>
       <c r="L5" t="n">
-        <v>55719.03974308629</v>
+        <v>55719.03974308628</v>
       </c>
       <c r="M5" t="n">
-        <v>46256.55073973801</v>
+        <v>46256.550739738</v>
       </c>
       <c r="N5" t="n">
-        <v>46256.55073973801</v>
+        <v>46256.550739738</v>
       </c>
       <c r="O5" t="n">
-        <v>46256.55073973801</v>
+        <v>46256.550739738</v>
       </c>
       <c r="P5" t="n">
-        <v>46256.55073973801</v>
+        <v>46256.550739738</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>99434.00582224526</v>
+        <v>99402.09910474358</v>
       </c>
       <c r="C6" t="n">
-        <v>99434.00582224526</v>
+        <v>99402.0991047437</v>
       </c>
       <c r="D6" t="n">
-        <v>70234.38247762047</v>
+        <v>70234.38247762035</v>
       </c>
       <c r="E6" t="n">
-        <v>-317344.4506910549</v>
+        <v>-317895.6067129761</v>
       </c>
       <c r="F6" t="n">
-        <v>197599.9002640652</v>
+        <v>197048.7442421438</v>
       </c>
       <c r="G6" t="n">
-        <v>197599.9002640652</v>
+        <v>197048.7442421438</v>
       </c>
       <c r="H6" t="n">
-        <v>197599.9002640652</v>
+        <v>197048.7442421438</v>
       </c>
       <c r="I6" t="n">
-        <v>169548.4903062612</v>
+        <v>169153.7652888952</v>
       </c>
       <c r="J6" t="n">
-        <v>210934.5846855271</v>
+        <v>210539.8596681612</v>
       </c>
       <c r="K6" t="n">
-        <v>210934.5846855272</v>
+        <v>210539.8596681611</v>
       </c>
       <c r="L6" t="n">
-        <v>200478.1292492254</v>
+        <v>200083.4042318594</v>
       </c>
       <c r="M6" t="n">
-        <v>98973.23975056512</v>
+        <v>98422.08372864364</v>
       </c>
       <c r="N6" t="n">
-        <v>197599.9002640652</v>
+        <v>197048.7442421437</v>
       </c>
       <c r="O6" t="n">
-        <v>197599.9002640652</v>
+        <v>197048.7442421437</v>
       </c>
       <c r="P6" t="n">
-        <v>197599.9002640652</v>
+        <v>197048.7442421438</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>32.7531020605716</v>
       </c>
       <c r="E3" t="n">
-        <v>468.7839603042022</v>
+        <v>468.7839603042021</v>
       </c>
       <c r="F3" t="n">
         <v>468.7839603042021</v>
       </c>
       <c r="G3" t="n">
-        <v>468.7839603042022</v>
+        <v>468.7839603042021</v>
       </c>
       <c r="H3" t="n">
         <v>468.7839603042021</v>
@@ -26770,16 +26770,16 @@
         <v>468.7839603042021</v>
       </c>
       <c r="M3" t="n">
-        <v>468.7839603042022</v>
+        <v>468.7839603042021</v>
       </c>
       <c r="N3" t="n">
-        <v>468.7839603042022</v>
+        <v>468.7839603042021</v>
       </c>
       <c r="O3" t="n">
-        <v>468.7839603042022</v>
+        <v>468.7839603042021</v>
       </c>
       <c r="P3" t="n">
-        <v>468.7839603042022</v>
+        <v>468.7839603042021</v>
       </c>
     </row>
     <row r="4">
@@ -26798,40 +26798,40 @@
         <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>592.7148092945132</v>
+        <v>592.7148092945131</v>
       </c>
       <c r="F4" t="n">
-        <v>592.7148092945132</v>
+        <v>592.714809294513</v>
       </c>
       <c r="G4" t="n">
-        <v>592.7148092945132</v>
+        <v>592.7148092945131</v>
       </c>
       <c r="H4" t="n">
-        <v>592.7148092945132</v>
+        <v>592.7148092945131</v>
       </c>
       <c r="I4" t="n">
-        <v>748.3478521127412</v>
+        <v>748.3478521127414</v>
       </c>
       <c r="J4" t="n">
-        <v>748.3478521127415</v>
+        <v>748.3478521127414</v>
       </c>
       <c r="K4" t="n">
         <v>748.3478521127415</v>
       </c>
       <c r="L4" t="n">
-        <v>748.3478521127415</v>
+        <v>748.3478521127414</v>
       </c>
       <c r="M4" t="n">
-        <v>592.7148092945132</v>
+        <v>592.7148092945131</v>
       </c>
       <c r="N4" t="n">
-        <v>592.7148092945132</v>
+        <v>592.7148092945131</v>
       </c>
       <c r="O4" t="n">
-        <v>592.7148092945132</v>
+        <v>592.7148092945131</v>
       </c>
       <c r="P4" t="n">
-        <v>592.7148092945132</v>
+        <v>592.7148092945131</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>32.7531020605716</v>
       </c>
       <c r="E3" t="n">
-        <v>436.0308582436306</v>
+        <v>436.0308582436305</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>551.3998062469858</v>
+        <v>551.3998062469857</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>155.633042818228</v>
+        <v>155.6330428182283</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>41.3150030475274</v>
+        <v>41.31500304752723</v>
       </c>
       <c r="M4" t="n">
-        <v>395.7667634287575</v>
+        <v>395.7667634287574</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="M4" t="n">
-        <v>551.3998062469858</v>
+        <v>551.3998062469857</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27937,16 +27937,16 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
-        <v>57.7491312806502</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>51.86420747878847</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
-        <v>41.23499695247265</v>
+        <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>43.14578572036749</v>
+        <v>84.46078876789484</v>
       </c>
       <c r="H9" t="n">
         <v>40.6378963153706</v>
@@ -27985,16 +27985,16 @@
         <v>61.51230405132225</v>
       </c>
       <c r="T9" t="n">
-        <v>128.5928940176698</v>
+        <v>92.20263933340772</v>
       </c>
       <c r="U9" t="n">
-        <v>174.5685466570983</v>
+        <v>133.2535436095709</v>
       </c>
       <c r="V9" t="n">
-        <v>197.1263427586206</v>
+        <v>155.8113397110933</v>
       </c>
       <c r="W9" t="n">
-        <v>183.4695267241379</v>
+        <v>142.1545236766106</v>
       </c>
       <c r="X9" t="n">
         <v>153.3187614035088</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>148.5854294842699</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -28019,13 +28019,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>150.2181261617868</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>133.624980450334</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>122.5612962059744</v>
+        <v>163.8762992535017</v>
       </c>
       <c r="H10" t="n">
         <v>137.9780290613614</v>
@@ -28064,22 +28064,22 @@
         <v>156.6196485125224</v>
       </c>
       <c r="T10" t="n">
-        <v>201.8532889431057</v>
+        <v>243.1682919906331</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6454491228296</v>
+        <v>257.8031515728463</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>227.991137322044</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>183.8304709315055</v>
       </c>
     </row>
     <row r="11">
@@ -31758,43 +31758,43 @@
         <v>19.3002361144338</v>
       </c>
       <c r="I11" t="n">
-        <v>72.65444675227239</v>
+        <v>72.65444675227238</v>
       </c>
       <c r="J11" t="n">
         <v>159.9495583954524</v>
       </c>
       <c r="K11" t="n">
-        <v>239.7229253891283</v>
+        <v>239.7229253891282</v>
       </c>
       <c r="L11" t="n">
-        <v>297.3974866963031</v>
+        <v>297.397486696303</v>
       </c>
       <c r="M11" t="n">
-        <v>330.9120063106141</v>
+        <v>330.9120063106139</v>
       </c>
       <c r="N11" t="n">
-        <v>336.2665085305711</v>
+        <v>336.266508530571</v>
       </c>
       <c r="O11" t="n">
         <v>317.5269286098679</v>
       </c>
       <c r="P11" t="n">
-        <v>271.0018873233956</v>
+        <v>271.0018873233955</v>
       </c>
       <c r="Q11" t="n">
-        <v>203.5111312293484</v>
+        <v>203.5111312293483</v>
       </c>
       <c r="R11" t="n">
         <v>118.3809063174225</v>
       </c>
       <c r="S11" t="n">
-        <v>42.94437988113371</v>
+        <v>42.9443798811337</v>
       </c>
       <c r="T11" t="n">
-        <v>8.249655422036762</v>
+        <v>8.24965542203676</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1507646907511001</v>
+        <v>0.1507646907511</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.00832776367319</v>
+        <v>1.008327763673189</v>
       </c>
       <c r="H12" t="n">
-        <v>9.738323401791071</v>
+        <v>9.738323401791067</v>
       </c>
       <c r="I12" t="n">
-        <v>27.22161917482968</v>
+        <v>34.71654800366026</v>
       </c>
       <c r="J12" t="n">
-        <v>95.26486121615869</v>
+        <v>95.26486121615866</v>
       </c>
       <c r="K12" t="n">
-        <v>162.8228213822624</v>
+        <v>155.327892553432</v>
       </c>
       <c r="L12" t="n">
-        <v>218.9353769326371</v>
+        <v>218.935376932637</v>
       </c>
       <c r="M12" t="n">
-        <v>255.4872583657902</v>
+        <v>255.4872583657901</v>
       </c>
       <c r="N12" t="n">
-        <v>262.2492458686688</v>
+        <v>262.2492458686687</v>
       </c>
       <c r="O12" t="n">
-        <v>239.9068254209628</v>
+        <v>239.9068254209627</v>
       </c>
       <c r="P12" t="n">
         <v>192.5463779596637</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.7121545348444</v>
+        <v>128.7121545348443</v>
       </c>
       <c r="R12" t="n">
-        <v>62.60477115156876</v>
+        <v>62.60477115156875</v>
       </c>
       <c r="S12" t="n">
-        <v>18.72924596121033</v>
+        <v>18.72924596121032</v>
       </c>
       <c r="T12" t="n">
-        <v>4.0642684860336</v>
+        <v>4.064268486033599</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06633735287323619</v>
+        <v>0.06633735287323617</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8453481251387251</v>
+        <v>0.8453481251387249</v>
       </c>
       <c r="H13" t="n">
-        <v>7.515913330778853</v>
+        <v>7.515913330778851</v>
       </c>
       <c r="I13" t="n">
         <v>25.42192361780821</v>
       </c>
       <c r="J13" t="n">
-        <v>59.76611244730787</v>
+        <v>59.76611244730785</v>
       </c>
       <c r="K13" t="n">
-        <v>98.21408217520823</v>
+        <v>98.2140821752082</v>
       </c>
       <c r="L13" t="n">
         <v>125.680211259261</v>
       </c>
       <c r="M13" t="n">
-        <v>132.5121611069731</v>
+        <v>132.512161106973</v>
       </c>
       <c r="N13" t="n">
-        <v>129.3613180950925</v>
+        <v>129.3613180950924</v>
       </c>
       <c r="O13" t="n">
         <v>119.4861149968809</v>
       </c>
       <c r="P13" t="n">
-        <v>102.2410132440509</v>
+        <v>102.2410132440508</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.78637800593452</v>
+        <v>70.78637800593451</v>
       </c>
       <c r="R13" t="n">
-        <v>38.0099256994194</v>
+        <v>38.00992569941939</v>
       </c>
       <c r="S13" t="n">
         <v>14.73211232628123</v>
       </c>
       <c r="T13" t="n">
-        <v>3.611941989229098</v>
+        <v>3.611941989229097</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04610989773483961</v>
+        <v>0.0461098977348396</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>19.3002361144338</v>
       </c>
       <c r="I14" t="n">
-        <v>72.65444675227239</v>
+        <v>72.65444675227238</v>
       </c>
       <c r="J14" t="n">
         <v>159.9495583954524</v>
@@ -32004,34 +32004,34 @@
         <v>239.7229253891282</v>
       </c>
       <c r="L14" t="n">
-        <v>297.3974866963031</v>
+        <v>297.397486696303</v>
       </c>
       <c r="M14" t="n">
-        <v>330.912006310614</v>
+        <v>330.9120063106139</v>
       </c>
       <c r="N14" t="n">
-        <v>336.2665085305711</v>
+        <v>336.266508530571</v>
       </c>
       <c r="O14" t="n">
         <v>317.5269286098679</v>
       </c>
       <c r="P14" t="n">
-        <v>271.0018873233956</v>
+        <v>271.0018873233955</v>
       </c>
       <c r="Q14" t="n">
-        <v>203.5111312293484</v>
+        <v>203.5111312293483</v>
       </c>
       <c r="R14" t="n">
         <v>118.3809063174225</v>
       </c>
       <c r="S14" t="n">
-        <v>42.94437988113371</v>
+        <v>42.9443798811337</v>
       </c>
       <c r="T14" t="n">
-        <v>8.249655422036762</v>
+        <v>8.24965542203676</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1507646907511001</v>
+        <v>0.1507646907511</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.00832776367319</v>
+        <v>1.008327763673189</v>
       </c>
       <c r="H15" t="n">
-        <v>9.738323401791069</v>
+        <v>9.738323401791067</v>
       </c>
       <c r="I15" t="n">
-        <v>27.22161917482989</v>
+        <v>34.71654800366026</v>
       </c>
       <c r="J15" t="n">
-        <v>95.26486121615868</v>
+        <v>95.26486121615866</v>
       </c>
       <c r="K15" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L15" t="n">
-        <v>218.9353769326371</v>
+        <v>218.935376932637</v>
       </c>
       <c r="M15" t="n">
         <v>255.4872583657901</v>
       </c>
       <c r="N15" t="n">
-        <v>262.2492458686687</v>
+        <v>254.7543170398384</v>
       </c>
       <c r="O15" t="n">
-        <v>239.9068254209628</v>
+        <v>239.9068254209627</v>
       </c>
       <c r="P15" t="n">
         <v>192.5463779596637</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.7121545348444</v>
+        <v>128.7121545348443</v>
       </c>
       <c r="R15" t="n">
-        <v>62.60477115156876</v>
+        <v>62.60477115156875</v>
       </c>
       <c r="S15" t="n">
-        <v>18.72924596121033</v>
+        <v>18.72924596121032</v>
       </c>
       <c r="T15" t="n">
-        <v>4.0642684860336</v>
+        <v>4.064268486033599</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06633735287323618</v>
+        <v>0.06633735287323617</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,28 +32147,28 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.845348125138725</v>
+        <v>0.8453481251387249</v>
       </c>
       <c r="H16" t="n">
-        <v>7.515913330778852</v>
+        <v>7.515913330778851</v>
       </c>
       <c r="I16" t="n">
         <v>25.42192361780821</v>
       </c>
       <c r="J16" t="n">
-        <v>59.76611244730786</v>
+        <v>59.76611244730785</v>
       </c>
       <c r="K16" t="n">
-        <v>98.21408217520822</v>
+        <v>98.2140821752082</v>
       </c>
       <c r="L16" t="n">
         <v>125.680211259261</v>
       </c>
       <c r="M16" t="n">
-        <v>132.5121611069731</v>
+        <v>132.512161106973</v>
       </c>
       <c r="N16" t="n">
-        <v>129.3613180950925</v>
+        <v>129.3613180950924</v>
       </c>
       <c r="O16" t="n">
         <v>119.4861149968809</v>
@@ -32177,7 +32177,7 @@
         <v>102.2410132440508</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.78637800593452</v>
+        <v>70.78637800593451</v>
       </c>
       <c r="R16" t="n">
         <v>38.00992569941939</v>
@@ -32232,43 +32232,43 @@
         <v>19.3002361144338</v>
       </c>
       <c r="I17" t="n">
-        <v>72.65444675227239</v>
+        <v>72.65444675227238</v>
       </c>
       <c r="J17" t="n">
         <v>159.9495583954524</v>
       </c>
       <c r="K17" t="n">
-        <v>239.7229253891283</v>
+        <v>239.7229253891282</v>
       </c>
       <c r="L17" t="n">
-        <v>297.3974866963031</v>
+        <v>297.397486696303</v>
       </c>
       <c r="M17" t="n">
-        <v>330.9120063106141</v>
+        <v>330.9120063106139</v>
       </c>
       <c r="N17" t="n">
-        <v>336.2665085305711</v>
+        <v>336.266508530571</v>
       </c>
       <c r="O17" t="n">
         <v>317.5269286098679</v>
       </c>
       <c r="P17" t="n">
-        <v>271.0018873233956</v>
+        <v>271.0018873233955</v>
       </c>
       <c r="Q17" t="n">
-        <v>203.5111312293484</v>
+        <v>203.5111312293483</v>
       </c>
       <c r="R17" t="n">
         <v>118.3809063174225</v>
       </c>
       <c r="S17" t="n">
-        <v>42.94437988113371</v>
+        <v>42.9443798811337</v>
       </c>
       <c r="T17" t="n">
-        <v>8.249655422036762</v>
+        <v>8.24965542203676</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1507646907511001</v>
+        <v>0.1507646907511</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.00832776367319</v>
+        <v>1.008327763673189</v>
       </c>
       <c r="H18" t="n">
-        <v>9.738323401791071</v>
+        <v>9.738323401791067</v>
       </c>
       <c r="I18" t="n">
         <v>34.71654800366026</v>
       </c>
       <c r="J18" t="n">
-        <v>95.26486121615869</v>
+        <v>95.26486121615866</v>
       </c>
       <c r="K18" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L18" t="n">
-        <v>218.9353769326371</v>
+        <v>218.935376932637</v>
       </c>
       <c r="M18" t="n">
-        <v>255.4872583657902</v>
+        <v>255.4872583657901</v>
       </c>
       <c r="N18" t="n">
-        <v>254.7543170398382</v>
+        <v>262.2492458686687</v>
       </c>
       <c r="O18" t="n">
-        <v>239.9068254209628</v>
+        <v>239.9068254209627</v>
       </c>
       <c r="P18" t="n">
-        <v>192.5463779596637</v>
+        <v>185.0514491308334</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.7121545348444</v>
+        <v>128.7121545348443</v>
       </c>
       <c r="R18" t="n">
-        <v>62.60477115156876</v>
+        <v>62.60477115156875</v>
       </c>
       <c r="S18" t="n">
-        <v>18.72924596121033</v>
+        <v>18.72924596121032</v>
       </c>
       <c r="T18" t="n">
-        <v>4.0642684860336</v>
+        <v>4.064268486033599</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06633735287323619</v>
+        <v>0.06633735287323617</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8453481251387251</v>
+        <v>0.8453481251387249</v>
       </c>
       <c r="H19" t="n">
-        <v>7.515913330778853</v>
+        <v>7.515913330778851</v>
       </c>
       <c r="I19" t="n">
         <v>25.42192361780821</v>
       </c>
       <c r="J19" t="n">
-        <v>59.76611244730787</v>
+        <v>59.76611244730785</v>
       </c>
       <c r="K19" t="n">
-        <v>98.21408217520823</v>
+        <v>98.2140821752082</v>
       </c>
       <c r="L19" t="n">
         <v>125.680211259261</v>
       </c>
       <c r="M19" t="n">
-        <v>132.5121611069731</v>
+        <v>132.512161106973</v>
       </c>
       <c r="N19" t="n">
-        <v>129.3613180950925</v>
+        <v>129.3613180950924</v>
       </c>
       <c r="O19" t="n">
         <v>119.4861149968809</v>
       </c>
       <c r="P19" t="n">
-        <v>102.2410132440509</v>
+        <v>102.2410132440508</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.78637800593452</v>
+        <v>70.78637800593451</v>
       </c>
       <c r="R19" t="n">
-        <v>38.0099256994194</v>
+        <v>38.00992569941939</v>
       </c>
       <c r="S19" t="n">
         <v>14.73211232628123</v>
       </c>
       <c r="T19" t="n">
-        <v>3.611941989229098</v>
+        <v>3.611941989229097</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04610989773483961</v>
+        <v>0.0461098977348396</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>19.3002361144338</v>
       </c>
       <c r="I20" t="n">
-        <v>72.65444675227239</v>
+        <v>72.65444675227238</v>
       </c>
       <c r="J20" t="n">
         <v>159.9495583954524</v>
@@ -32478,34 +32478,34 @@
         <v>239.7229253891282</v>
       </c>
       <c r="L20" t="n">
-        <v>297.3974866963031</v>
+        <v>297.397486696303</v>
       </c>
       <c r="M20" t="n">
-        <v>330.912006310614</v>
+        <v>330.9120063106139</v>
       </c>
       <c r="N20" t="n">
-        <v>336.2665085305711</v>
+        <v>336.266508530571</v>
       </c>
       <c r="O20" t="n">
         <v>317.5269286098679</v>
       </c>
       <c r="P20" t="n">
-        <v>271.0018873233956</v>
+        <v>271.0018873233955</v>
       </c>
       <c r="Q20" t="n">
-        <v>203.5111312293484</v>
+        <v>203.5111312293483</v>
       </c>
       <c r="R20" t="n">
         <v>118.3809063174225</v>
       </c>
       <c r="S20" t="n">
-        <v>42.94437988113371</v>
+        <v>42.9443798811337</v>
       </c>
       <c r="T20" t="n">
-        <v>8.249655422036762</v>
+        <v>8.24965542203676</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1507646907511001</v>
+        <v>0.1507646907511</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.00832776367319</v>
+        <v>1.008327763673189</v>
       </c>
       <c r="H21" t="n">
-        <v>9.738323401791069</v>
+        <v>9.738323401791067</v>
       </c>
       <c r="I21" t="n">
-        <v>27.22161917482989</v>
+        <v>34.71654800366026</v>
       </c>
       <c r="J21" t="n">
-        <v>95.26486121615868</v>
+        <v>95.26486121615866</v>
       </c>
       <c r="K21" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L21" t="n">
-        <v>218.9353769326371</v>
+        <v>218.935376932637</v>
       </c>
       <c r="M21" t="n">
         <v>255.4872583657901</v>
@@ -32566,25 +32566,25 @@
         <v>262.2492458686687</v>
       </c>
       <c r="O21" t="n">
-        <v>239.9068254209628</v>
+        <v>232.4118965921325</v>
       </c>
       <c r="P21" t="n">
         <v>192.5463779596637</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.7121545348444</v>
+        <v>128.7121545348443</v>
       </c>
       <c r="R21" t="n">
-        <v>62.60477115156876</v>
+        <v>62.60477115156875</v>
       </c>
       <c r="S21" t="n">
-        <v>18.72924596121033</v>
+        <v>18.72924596121032</v>
       </c>
       <c r="T21" t="n">
-        <v>4.0642684860336</v>
+        <v>4.064268486033599</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06633735287323618</v>
+        <v>0.06633735287323617</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,28 +32621,28 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.845348125138725</v>
+        <v>0.8453481251387249</v>
       </c>
       <c r="H22" t="n">
-        <v>7.515913330778852</v>
+        <v>7.515913330778851</v>
       </c>
       <c r="I22" t="n">
         <v>25.42192361780821</v>
       </c>
       <c r="J22" t="n">
-        <v>59.76611244730786</v>
+        <v>59.76611244730785</v>
       </c>
       <c r="K22" t="n">
-        <v>98.21408217520822</v>
+        <v>98.2140821752082</v>
       </c>
       <c r="L22" t="n">
         <v>125.680211259261</v>
       </c>
       <c r="M22" t="n">
-        <v>132.5121611069731</v>
+        <v>132.512161106973</v>
       </c>
       <c r="N22" t="n">
-        <v>129.3613180950925</v>
+        <v>129.3613180950924</v>
       </c>
       <c r="O22" t="n">
         <v>119.4861149968809</v>
@@ -32651,7 +32651,7 @@
         <v>102.2410132440508</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.78637800593452</v>
+        <v>70.78637800593451</v>
       </c>
       <c r="R22" t="n">
         <v>38.00992569941939</v>
@@ -32706,7 +32706,7 @@
         <v>19.3002361144338</v>
       </c>
       <c r="I23" t="n">
-        <v>72.65444675227239</v>
+        <v>72.65444675227238</v>
       </c>
       <c r="J23" t="n">
         <v>159.9495583954524</v>
@@ -32715,34 +32715,34 @@
         <v>239.7229253891282</v>
       </c>
       <c r="L23" t="n">
-        <v>297.3974866963031</v>
+        <v>297.397486696303</v>
       </c>
       <c r="M23" t="n">
-        <v>330.912006310614</v>
+        <v>330.9120063106139</v>
       </c>
       <c r="N23" t="n">
-        <v>336.2665085305711</v>
+        <v>336.266508530571</v>
       </c>
       <c r="O23" t="n">
         <v>317.5269286098679</v>
       </c>
       <c r="P23" t="n">
-        <v>271.0018873233956</v>
+        <v>271.0018873233955</v>
       </c>
       <c r="Q23" t="n">
-        <v>203.5111312293484</v>
+        <v>203.5111312293483</v>
       </c>
       <c r="R23" t="n">
         <v>118.3809063174225</v>
       </c>
       <c r="S23" t="n">
-        <v>42.94437988113371</v>
+        <v>42.9443798811337</v>
       </c>
       <c r="T23" t="n">
-        <v>8.249655422036762</v>
+        <v>8.24965542203676</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1507646907511001</v>
+        <v>0.1507646907511</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.00832776367319</v>
+        <v>1.008327763673189</v>
       </c>
       <c r="H24" t="n">
-        <v>9.738323401791069</v>
+        <v>9.738323401791067</v>
       </c>
       <c r="I24" t="n">
         <v>34.71654800366026</v>
       </c>
       <c r="J24" t="n">
-        <v>95.26486121615868</v>
+        <v>95.26486121615866</v>
       </c>
       <c r="K24" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L24" t="n">
-        <v>218.9353769326371</v>
+        <v>218.935376932637</v>
       </c>
       <c r="M24" t="n">
-        <v>247.9923295369598</v>
+        <v>255.4872583657901</v>
       </c>
       <c r="N24" t="n">
         <v>262.2492458686687</v>
       </c>
       <c r="O24" t="n">
-        <v>239.9068254209628</v>
+        <v>239.9068254209627</v>
       </c>
       <c r="P24" t="n">
-        <v>192.5463779596637</v>
+        <v>185.0514491308334</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.7121545348444</v>
+        <v>128.7121545348443</v>
       </c>
       <c r="R24" t="n">
-        <v>62.60477115156876</v>
+        <v>62.60477115156875</v>
       </c>
       <c r="S24" t="n">
-        <v>18.72924596121033</v>
+        <v>18.72924596121032</v>
       </c>
       <c r="T24" t="n">
-        <v>4.0642684860336</v>
+        <v>4.064268486033599</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06633735287323618</v>
+        <v>0.06633735287323617</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,28 +32858,28 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.845348125138725</v>
+        <v>0.8453481251387249</v>
       </c>
       <c r="H25" t="n">
-        <v>7.515913330778852</v>
+        <v>7.515913330778851</v>
       </c>
       <c r="I25" t="n">
         <v>25.42192361780821</v>
       </c>
       <c r="J25" t="n">
-        <v>59.76611244730786</v>
+        <v>59.76611244730785</v>
       </c>
       <c r="K25" t="n">
-        <v>98.21408217520822</v>
+        <v>98.2140821752082</v>
       </c>
       <c r="L25" t="n">
         <v>125.680211259261</v>
       </c>
       <c r="M25" t="n">
-        <v>132.5121611069731</v>
+        <v>132.512161106973</v>
       </c>
       <c r="N25" t="n">
-        <v>129.3613180950925</v>
+        <v>129.3613180950924</v>
       </c>
       <c r="O25" t="n">
         <v>119.4861149968809</v>
@@ -32888,7 +32888,7 @@
         <v>102.2410132440508</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.78637800593452</v>
+        <v>70.78637800593451</v>
       </c>
       <c r="R25" t="n">
         <v>38.00992569941939</v>
@@ -32943,7 +32943,7 @@
         <v>19.3002361144338</v>
       </c>
       <c r="I26" t="n">
-        <v>72.65444675227239</v>
+        <v>72.65444675227238</v>
       </c>
       <c r="J26" t="n">
         <v>159.9495583954524</v>
@@ -32952,34 +32952,34 @@
         <v>239.7229253891282</v>
       </c>
       <c r="L26" t="n">
-        <v>297.3974866963031</v>
+        <v>297.397486696303</v>
       </c>
       <c r="M26" t="n">
-        <v>330.912006310614</v>
+        <v>330.9120063106139</v>
       </c>
       <c r="N26" t="n">
-        <v>336.2665085305711</v>
+        <v>336.266508530571</v>
       </c>
       <c r="O26" t="n">
         <v>317.5269286098679</v>
       </c>
       <c r="P26" t="n">
-        <v>271.0018873233956</v>
+        <v>271.0018873233955</v>
       </c>
       <c r="Q26" t="n">
-        <v>203.5111312293484</v>
+        <v>203.5111312293483</v>
       </c>
       <c r="R26" t="n">
         <v>118.3809063174225</v>
       </c>
       <c r="S26" t="n">
-        <v>42.94437988113371</v>
+        <v>42.9443798811337</v>
       </c>
       <c r="T26" t="n">
-        <v>8.249655422036762</v>
+        <v>8.24965542203676</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1507646907511001</v>
+        <v>0.1507646907511</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.00832776367319</v>
+        <v>1.008327763673189</v>
       </c>
       <c r="H27" t="n">
-        <v>9.738323401791069</v>
+        <v>9.738323401791067</v>
       </c>
       <c r="I27" t="n">
-        <v>27.22161917482988</v>
+        <v>27.22161917482991</v>
       </c>
       <c r="J27" t="n">
-        <v>95.26486121615868</v>
+        <v>95.26486121615866</v>
       </c>
       <c r="K27" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L27" t="n">
-        <v>218.9353769326371</v>
+        <v>218.935376932637</v>
       </c>
       <c r="M27" t="n">
         <v>255.4872583657901</v>
@@ -33040,25 +33040,25 @@
         <v>262.2492458686687</v>
       </c>
       <c r="O27" t="n">
-        <v>239.9068254209628</v>
+        <v>239.9068254209627</v>
       </c>
       <c r="P27" t="n">
         <v>192.5463779596637</v>
       </c>
       <c r="Q27" t="n">
-        <v>128.7121545348444</v>
+        <v>128.7121545348443</v>
       </c>
       <c r="R27" t="n">
-        <v>62.60477115156876</v>
+        <v>62.60477115156875</v>
       </c>
       <c r="S27" t="n">
-        <v>18.72924596121033</v>
+        <v>18.72924596121032</v>
       </c>
       <c r="T27" t="n">
-        <v>4.0642684860336</v>
+        <v>4.064268486033599</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06633735287323618</v>
+        <v>0.06633735287323617</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,28 +33095,28 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.845348125138725</v>
+        <v>0.8453481251387249</v>
       </c>
       <c r="H28" t="n">
-        <v>7.515913330778852</v>
+        <v>7.515913330778851</v>
       </c>
       <c r="I28" t="n">
         <v>25.42192361780821</v>
       </c>
       <c r="J28" t="n">
-        <v>59.76611244730786</v>
+        <v>59.76611244730785</v>
       </c>
       <c r="K28" t="n">
-        <v>98.21408217520822</v>
+        <v>98.2140821752082</v>
       </c>
       <c r="L28" t="n">
         <v>125.680211259261</v>
       </c>
       <c r="M28" t="n">
-        <v>132.5121611069731</v>
+        <v>132.512161106973</v>
       </c>
       <c r="N28" t="n">
-        <v>129.3613180950925</v>
+        <v>129.3613180950924</v>
       </c>
       <c r="O28" t="n">
         <v>119.4861149968809</v>
@@ -33125,7 +33125,7 @@
         <v>102.2410132440508</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.78637800593452</v>
+        <v>70.78637800593451</v>
       </c>
       <c r="R28" t="n">
         <v>38.00992569941939</v>
@@ -33180,7 +33180,7 @@
         <v>19.3002361144338</v>
       </c>
       <c r="I29" t="n">
-        <v>72.65444675227239</v>
+        <v>72.65444675227238</v>
       </c>
       <c r="J29" t="n">
         <v>159.9495583954524</v>
@@ -33189,34 +33189,34 @@
         <v>239.7229253891282</v>
       </c>
       <c r="L29" t="n">
-        <v>297.3974866963031</v>
+        <v>297.397486696303</v>
       </c>
       <c r="M29" t="n">
-        <v>330.912006310614</v>
+        <v>330.9120063106139</v>
       </c>
       <c r="N29" t="n">
-        <v>336.2665085305711</v>
+        <v>336.266508530571</v>
       </c>
       <c r="O29" t="n">
         <v>317.5269286098679</v>
       </c>
       <c r="P29" t="n">
-        <v>271.0018873233956</v>
+        <v>271.0018873233955</v>
       </c>
       <c r="Q29" t="n">
-        <v>203.5111312293484</v>
+        <v>203.5111312293483</v>
       </c>
       <c r="R29" t="n">
         <v>118.3809063174225</v>
       </c>
       <c r="S29" t="n">
-        <v>42.94437988113371</v>
+        <v>42.9443798811337</v>
       </c>
       <c r="T29" t="n">
-        <v>8.249655422036762</v>
+        <v>8.24965542203676</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1507646907511001</v>
+        <v>0.1507646907511</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.00832776367319</v>
+        <v>1.008327763673189</v>
       </c>
       <c r="H30" t="n">
-        <v>9.738323401791069</v>
+        <v>9.738323401791067</v>
       </c>
       <c r="I30" t="n">
-        <v>27.22161917482988</v>
+        <v>34.71654800366026</v>
       </c>
       <c r="J30" t="n">
-        <v>95.26486121615868</v>
+        <v>95.26486121615866</v>
       </c>
       <c r="K30" t="n">
-        <v>162.8228213822624</v>
+        <v>155.327892553432</v>
       </c>
       <c r="L30" t="n">
-        <v>218.9353769326371</v>
+        <v>218.935376932637</v>
       </c>
       <c r="M30" t="n">
         <v>255.4872583657901</v>
@@ -33277,25 +33277,25 @@
         <v>262.2492458686687</v>
       </c>
       <c r="O30" t="n">
-        <v>239.9068254209628</v>
+        <v>239.9068254209627</v>
       </c>
       <c r="P30" t="n">
         <v>192.5463779596637</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.7121545348444</v>
+        <v>128.7121545348443</v>
       </c>
       <c r="R30" t="n">
-        <v>62.60477115156876</v>
+        <v>62.60477115156875</v>
       </c>
       <c r="S30" t="n">
-        <v>18.72924596121033</v>
+        <v>18.72924596121032</v>
       </c>
       <c r="T30" t="n">
-        <v>4.0642684860336</v>
+        <v>4.064268486033599</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06633735287323618</v>
+        <v>0.06633735287323617</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,28 +33332,28 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.845348125138725</v>
+        <v>0.8453481251387249</v>
       </c>
       <c r="H31" t="n">
-        <v>7.515913330778852</v>
+        <v>7.515913330778851</v>
       </c>
       <c r="I31" t="n">
         <v>25.42192361780821</v>
       </c>
       <c r="J31" t="n">
-        <v>59.76611244730786</v>
+        <v>59.76611244730785</v>
       </c>
       <c r="K31" t="n">
-        <v>98.21408217520822</v>
+        <v>98.2140821752082</v>
       </c>
       <c r="L31" t="n">
         <v>125.680211259261</v>
       </c>
       <c r="M31" t="n">
-        <v>132.5121611069731</v>
+        <v>132.512161106973</v>
       </c>
       <c r="N31" t="n">
-        <v>129.3613180950925</v>
+        <v>129.3613180950924</v>
       </c>
       <c r="O31" t="n">
         <v>119.4861149968809</v>
@@ -33362,7 +33362,7 @@
         <v>102.2410132440508</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.78637800593452</v>
+        <v>70.78637800593451</v>
       </c>
       <c r="R31" t="n">
         <v>38.00992569941939</v>
@@ -33417,7 +33417,7 @@
         <v>19.3002361144338</v>
       </c>
       <c r="I32" t="n">
-        <v>72.65444675227239</v>
+        <v>72.65444675227238</v>
       </c>
       <c r="J32" t="n">
         <v>159.9495583954524</v>
@@ -33426,34 +33426,34 @@
         <v>239.7229253891282</v>
       </c>
       <c r="L32" t="n">
-        <v>297.3974866963031</v>
+        <v>297.397486696303</v>
       </c>
       <c r="M32" t="n">
-        <v>330.912006310614</v>
+        <v>330.9120063106139</v>
       </c>
       <c r="N32" t="n">
-        <v>336.2665085305711</v>
+        <v>336.266508530571</v>
       </c>
       <c r="O32" t="n">
         <v>317.5269286098679</v>
       </c>
       <c r="P32" t="n">
-        <v>271.0018873233956</v>
+        <v>271.0018873233955</v>
       </c>
       <c r="Q32" t="n">
-        <v>203.5111312293484</v>
+        <v>203.5111312293483</v>
       </c>
       <c r="R32" t="n">
         <v>118.3809063174225</v>
       </c>
       <c r="S32" t="n">
-        <v>42.94437988113371</v>
+        <v>42.9443798811337</v>
       </c>
       <c r="T32" t="n">
-        <v>8.249655422036762</v>
+        <v>8.24965542203676</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1507646907511001</v>
+        <v>0.1507646907511</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.00832776367319</v>
+        <v>1.008327763673189</v>
       </c>
       <c r="H33" t="n">
-        <v>9.738323401791069</v>
+        <v>9.738323401791067</v>
       </c>
       <c r="I33" t="n">
         <v>34.71654800366026</v>
       </c>
       <c r="J33" t="n">
-        <v>95.26486121615868</v>
+        <v>95.26486121615866</v>
       </c>
       <c r="K33" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L33" t="n">
-        <v>218.9353769326371</v>
+        <v>218.935376932637</v>
       </c>
       <c r="M33" t="n">
         <v>255.4872583657901</v>
@@ -33514,25 +33514,25 @@
         <v>262.2492458686687</v>
       </c>
       <c r="O33" t="n">
-        <v>239.9068254209628</v>
+        <v>239.9068254209627</v>
       </c>
       <c r="P33" t="n">
-        <v>192.5463779596637</v>
+        <v>185.0514491308334</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.7121545348444</v>
+        <v>128.7121545348443</v>
       </c>
       <c r="R33" t="n">
-        <v>55.10984232273836</v>
+        <v>62.60477115156875</v>
       </c>
       <c r="S33" t="n">
-        <v>18.72924596121033</v>
+        <v>18.72924596121032</v>
       </c>
       <c r="T33" t="n">
-        <v>4.0642684860336</v>
+        <v>4.064268486033599</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06633735287323618</v>
+        <v>0.06633735287323617</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,28 +33569,28 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.845348125138725</v>
+        <v>0.8453481251387249</v>
       </c>
       <c r="H34" t="n">
-        <v>7.515913330778852</v>
+        <v>7.515913330778851</v>
       </c>
       <c r="I34" t="n">
         <v>25.42192361780821</v>
       </c>
       <c r="J34" t="n">
-        <v>59.76611244730786</v>
+        <v>59.76611244730785</v>
       </c>
       <c r="K34" t="n">
-        <v>98.21408217520822</v>
+        <v>98.2140821752082</v>
       </c>
       <c r="L34" t="n">
         <v>125.680211259261</v>
       </c>
       <c r="M34" t="n">
-        <v>132.5121611069731</v>
+        <v>132.512161106973</v>
       </c>
       <c r="N34" t="n">
-        <v>129.3613180950925</v>
+        <v>129.3613180950924</v>
       </c>
       <c r="O34" t="n">
         <v>119.4861149968809</v>
@@ -33599,7 +33599,7 @@
         <v>102.2410132440508</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.78637800593452</v>
+        <v>70.78637800593451</v>
       </c>
       <c r="R34" t="n">
         <v>38.00992569941939</v>
@@ -33654,43 +33654,43 @@
         <v>19.3002361144338</v>
       </c>
       <c r="I35" t="n">
-        <v>72.65444675227239</v>
+        <v>72.65444675227238</v>
       </c>
       <c r="J35" t="n">
         <v>159.9495583954524</v>
       </c>
       <c r="K35" t="n">
-        <v>239.7229253891283</v>
+        <v>239.7229253891282</v>
       </c>
       <c r="L35" t="n">
-        <v>297.3974866963031</v>
+        <v>297.397486696303</v>
       </c>
       <c r="M35" t="n">
-        <v>330.9120063106141</v>
+        <v>330.9120063106139</v>
       </c>
       <c r="N35" t="n">
-        <v>336.2665085305711</v>
+        <v>336.266508530571</v>
       </c>
       <c r="O35" t="n">
         <v>317.5269286098679</v>
       </c>
       <c r="P35" t="n">
-        <v>271.0018873233956</v>
+        <v>271.0018873233955</v>
       </c>
       <c r="Q35" t="n">
-        <v>203.5111312293484</v>
+        <v>203.5111312293483</v>
       </c>
       <c r="R35" t="n">
         <v>118.3809063174225</v>
       </c>
       <c r="S35" t="n">
-        <v>42.94437988113371</v>
+        <v>42.9443798811337</v>
       </c>
       <c r="T35" t="n">
-        <v>8.249655422036762</v>
+        <v>8.24965542203676</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1507646907511001</v>
+        <v>0.1507646907511</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.00832776367319</v>
+        <v>1.008327763673189</v>
       </c>
       <c r="H36" t="n">
-        <v>9.738323401791071</v>
+        <v>9.738323401791067</v>
       </c>
       <c r="I36" t="n">
         <v>34.71654800366026</v>
       </c>
       <c r="J36" t="n">
-        <v>95.26486121615869</v>
+        <v>87.76993238732832</v>
       </c>
       <c r="K36" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L36" t="n">
-        <v>218.9353769326371</v>
+        <v>218.935376932637</v>
       </c>
       <c r="M36" t="n">
-        <v>255.4872583657902</v>
+        <v>255.4872583657901</v>
       </c>
       <c r="N36" t="n">
-        <v>262.2492458686688</v>
+        <v>262.2492458686687</v>
       </c>
       <c r="O36" t="n">
-        <v>239.9068254209628</v>
+        <v>239.9068254209627</v>
       </c>
       <c r="P36" t="n">
         <v>192.5463779596637</v>
       </c>
       <c r="Q36" t="n">
-        <v>121.2172257060138</v>
+        <v>128.7121545348443</v>
       </c>
       <c r="R36" t="n">
-        <v>62.60477115156876</v>
+        <v>62.60477115156875</v>
       </c>
       <c r="S36" t="n">
-        <v>18.72924596121033</v>
+        <v>18.72924596121032</v>
       </c>
       <c r="T36" t="n">
-        <v>4.0642684860336</v>
+        <v>4.064268486033599</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06633735287323619</v>
+        <v>0.06633735287323617</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8453481251387251</v>
+        <v>0.8453481251387249</v>
       </c>
       <c r="H37" t="n">
-        <v>7.515913330778853</v>
+        <v>7.515913330778851</v>
       </c>
       <c r="I37" t="n">
         <v>25.42192361780821</v>
       </c>
       <c r="J37" t="n">
-        <v>59.76611244730787</v>
+        <v>59.76611244730785</v>
       </c>
       <c r="K37" t="n">
-        <v>98.21408217520823</v>
+        <v>98.2140821752082</v>
       </c>
       <c r="L37" t="n">
         <v>125.680211259261</v>
       </c>
       <c r="M37" t="n">
-        <v>132.5121611069731</v>
+        <v>132.512161106973</v>
       </c>
       <c r="N37" t="n">
-        <v>129.3613180950925</v>
+        <v>129.3613180950924</v>
       </c>
       <c r="O37" t="n">
         <v>119.4861149968809</v>
       </c>
       <c r="P37" t="n">
-        <v>102.2410132440509</v>
+        <v>102.2410132440508</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.78637800593452</v>
+        <v>70.78637800593451</v>
       </c>
       <c r="R37" t="n">
-        <v>38.0099256994194</v>
+        <v>38.00992569941939</v>
       </c>
       <c r="S37" t="n">
         <v>14.73211232628123</v>
       </c>
       <c r="T37" t="n">
-        <v>3.611941989229098</v>
+        <v>3.611941989229097</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04610989773483961</v>
+        <v>0.0461098977348396</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,43 +33891,43 @@
         <v>19.3002361144338</v>
       </c>
       <c r="I38" t="n">
-        <v>72.65444675227239</v>
+        <v>72.65444675227238</v>
       </c>
       <c r="J38" t="n">
         <v>159.9495583954524</v>
       </c>
       <c r="K38" t="n">
-        <v>239.7229253891283</v>
+        <v>239.7229253891282</v>
       </c>
       <c r="L38" t="n">
-        <v>297.3974866963031</v>
+        <v>297.397486696303</v>
       </c>
       <c r="M38" t="n">
-        <v>330.9120063106141</v>
+        <v>330.9120063106139</v>
       </c>
       <c r="N38" t="n">
-        <v>336.2665085305711</v>
+        <v>336.266508530571</v>
       </c>
       <c r="O38" t="n">
         <v>317.5269286098679</v>
       </c>
       <c r="P38" t="n">
-        <v>271.0018873233956</v>
+        <v>271.0018873233955</v>
       </c>
       <c r="Q38" t="n">
-        <v>203.5111312293484</v>
+        <v>203.5111312293483</v>
       </c>
       <c r="R38" t="n">
         <v>118.3809063174225</v>
       </c>
       <c r="S38" t="n">
-        <v>42.94437988113371</v>
+        <v>42.9443798811337</v>
       </c>
       <c r="T38" t="n">
-        <v>8.249655422036762</v>
+        <v>8.24965542203676</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1507646907511001</v>
+        <v>0.1507646907511</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.00832776367319</v>
+        <v>1.008327763673189</v>
       </c>
       <c r="H39" t="n">
-        <v>9.738323401791071</v>
+        <v>9.738323401791067</v>
       </c>
       <c r="I39" t="n">
         <v>34.71654800366026</v>
       </c>
       <c r="J39" t="n">
-        <v>95.26486121615869</v>
+        <v>95.26486121615866</v>
       </c>
       <c r="K39" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L39" t="n">
-        <v>218.9353769326371</v>
+        <v>218.935376932637</v>
       </c>
       <c r="M39" t="n">
-        <v>255.4872583657902</v>
+        <v>255.4872583657901</v>
       </c>
       <c r="N39" t="n">
-        <v>262.2492458686688</v>
+        <v>262.2492458686687</v>
       </c>
       <c r="O39" t="n">
-        <v>232.4118965921323</v>
+        <v>239.9068254209627</v>
       </c>
       <c r="P39" t="n">
-        <v>192.5463779596637</v>
+        <v>185.0514491308334</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.7121545348444</v>
+        <v>128.7121545348443</v>
       </c>
       <c r="R39" t="n">
-        <v>62.60477115156876</v>
+        <v>62.60477115156875</v>
       </c>
       <c r="S39" t="n">
-        <v>18.72924596121033</v>
+        <v>18.72924596121032</v>
       </c>
       <c r="T39" t="n">
-        <v>4.0642684860336</v>
+        <v>4.064268486033599</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06633735287323619</v>
+        <v>0.06633735287323617</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8453481251387251</v>
+        <v>0.8453481251387249</v>
       </c>
       <c r="H40" t="n">
-        <v>7.515913330778853</v>
+        <v>7.515913330778851</v>
       </c>
       <c r="I40" t="n">
         <v>25.42192361780821</v>
       </c>
       <c r="J40" t="n">
-        <v>59.76611244730787</v>
+        <v>59.76611244730785</v>
       </c>
       <c r="K40" t="n">
-        <v>98.21408217520823</v>
+        <v>98.2140821752082</v>
       </c>
       <c r="L40" t="n">
         <v>125.680211259261</v>
       </c>
       <c r="M40" t="n">
-        <v>132.5121611069731</v>
+        <v>132.512161106973</v>
       </c>
       <c r="N40" t="n">
-        <v>129.3613180950925</v>
+        <v>129.3613180950924</v>
       </c>
       <c r="O40" t="n">
         <v>119.4861149968809</v>
       </c>
       <c r="P40" t="n">
-        <v>102.2410132440509</v>
+        <v>102.2410132440508</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.78637800593452</v>
+        <v>70.78637800593451</v>
       </c>
       <c r="R40" t="n">
-        <v>38.0099256994194</v>
+        <v>38.00992569941939</v>
       </c>
       <c r="S40" t="n">
         <v>14.73211232628123</v>
       </c>
       <c r="T40" t="n">
-        <v>3.611941989229098</v>
+        <v>3.611941989229097</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04610989773483961</v>
+        <v>0.0461098977348396</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,43 +34128,43 @@
         <v>19.3002361144338</v>
       </c>
       <c r="I41" t="n">
-        <v>72.65444675227239</v>
+        <v>72.65444675227238</v>
       </c>
       <c r="J41" t="n">
         <v>159.9495583954524</v>
       </c>
       <c r="K41" t="n">
-        <v>239.7229253891283</v>
+        <v>239.7229253891282</v>
       </c>
       <c r="L41" t="n">
-        <v>297.3974866963031</v>
+        <v>297.397486696303</v>
       </c>
       <c r="M41" t="n">
-        <v>330.9120063106141</v>
+        <v>330.9120063106139</v>
       </c>
       <c r="N41" t="n">
-        <v>336.2665085305711</v>
+        <v>336.266508530571</v>
       </c>
       <c r="O41" t="n">
         <v>317.5269286098679</v>
       </c>
       <c r="P41" t="n">
-        <v>271.0018873233956</v>
+        <v>271.0018873233955</v>
       </c>
       <c r="Q41" t="n">
-        <v>203.5111312293484</v>
+        <v>203.5111312293483</v>
       </c>
       <c r="R41" t="n">
         <v>118.3809063174225</v>
       </c>
       <c r="S41" t="n">
-        <v>42.94437988113371</v>
+        <v>42.9443798811337</v>
       </c>
       <c r="T41" t="n">
-        <v>8.249655422036762</v>
+        <v>8.24965542203676</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1507646907511001</v>
+        <v>0.1507646907511</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.00832776367319</v>
+        <v>1.008327763673189</v>
       </c>
       <c r="H42" t="n">
-        <v>9.738323401791071</v>
+        <v>9.738323401791067</v>
       </c>
       <c r="I42" t="n">
-        <v>27.22161917482968</v>
+        <v>34.71654800366026</v>
       </c>
       <c r="J42" t="n">
-        <v>95.26486121615869</v>
+        <v>95.26486121615866</v>
       </c>
       <c r="K42" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L42" t="n">
-        <v>218.9353769326371</v>
+        <v>218.935376932637</v>
       </c>
       <c r="M42" t="n">
-        <v>255.4872583657902</v>
+        <v>255.4872583657901</v>
       </c>
       <c r="N42" t="n">
-        <v>262.2492458686688</v>
+        <v>262.2492458686687</v>
       </c>
       <c r="O42" t="n">
-        <v>239.9068254209628</v>
+        <v>239.9068254209627</v>
       </c>
       <c r="P42" t="n">
-        <v>192.5463779596637</v>
+        <v>185.0514491308334</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.7121545348444</v>
+        <v>128.7121545348443</v>
       </c>
       <c r="R42" t="n">
-        <v>62.60477115156876</v>
+        <v>62.60477115156875</v>
       </c>
       <c r="S42" t="n">
-        <v>18.72924596121033</v>
+        <v>18.72924596121032</v>
       </c>
       <c r="T42" t="n">
-        <v>4.0642684860336</v>
+        <v>4.064268486033599</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06633735287323619</v>
+        <v>0.06633735287323617</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8453481251387251</v>
+        <v>0.8453481251387249</v>
       </c>
       <c r="H43" t="n">
-        <v>7.515913330778853</v>
+        <v>7.515913330778851</v>
       </c>
       <c r="I43" t="n">
         <v>25.42192361780821</v>
       </c>
       <c r="J43" t="n">
-        <v>59.76611244730787</v>
+        <v>59.76611244730785</v>
       </c>
       <c r="K43" t="n">
-        <v>98.21408217520823</v>
+        <v>98.2140821752082</v>
       </c>
       <c r="L43" t="n">
         <v>125.680211259261</v>
       </c>
       <c r="M43" t="n">
-        <v>132.5121611069731</v>
+        <v>132.512161106973</v>
       </c>
       <c r="N43" t="n">
-        <v>129.3613180950925</v>
+        <v>129.3613180950924</v>
       </c>
       <c r="O43" t="n">
         <v>119.4861149968809</v>
       </c>
       <c r="P43" t="n">
-        <v>102.2410132440509</v>
+        <v>102.2410132440508</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.78637800593452</v>
+        <v>70.78637800593451</v>
       </c>
       <c r="R43" t="n">
-        <v>38.0099256994194</v>
+        <v>38.00992569941939</v>
       </c>
       <c r="S43" t="n">
         <v>14.73211232628123</v>
       </c>
       <c r="T43" t="n">
-        <v>3.611941989229098</v>
+        <v>3.611941989229097</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04610989773483961</v>
+        <v>0.0461098977348396</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,43 +34365,43 @@
         <v>19.3002361144338</v>
       </c>
       <c r="I44" t="n">
-        <v>72.65444675227239</v>
+        <v>72.65444675227238</v>
       </c>
       <c r="J44" t="n">
         <v>159.9495583954524</v>
       </c>
       <c r="K44" t="n">
-        <v>239.7229253891283</v>
+        <v>239.7229253891282</v>
       </c>
       <c r="L44" t="n">
-        <v>297.3974866963031</v>
+        <v>297.397486696303</v>
       </c>
       <c r="M44" t="n">
-        <v>330.9120063106141</v>
+        <v>330.9120063106139</v>
       </c>
       <c r="N44" t="n">
-        <v>336.2665085305711</v>
+        <v>336.266508530571</v>
       </c>
       <c r="O44" t="n">
         <v>317.5269286098679</v>
       </c>
       <c r="P44" t="n">
-        <v>271.0018873233956</v>
+        <v>271.0018873233955</v>
       </c>
       <c r="Q44" t="n">
-        <v>203.5111312293484</v>
+        <v>203.5111312293483</v>
       </c>
       <c r="R44" t="n">
         <v>118.3809063174225</v>
       </c>
       <c r="S44" t="n">
-        <v>42.94437988113371</v>
+        <v>42.9443798811337</v>
       </c>
       <c r="T44" t="n">
-        <v>8.249655422036762</v>
+        <v>8.24965542203676</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1507646907511001</v>
+        <v>0.1507646907511</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.00832776367319</v>
+        <v>1.008327763673189</v>
       </c>
       <c r="H45" t="n">
-        <v>9.738323401791071</v>
+        <v>9.738323401791067</v>
       </c>
       <c r="I45" t="n">
-        <v>27.22161917482968</v>
+        <v>34.71654800366026</v>
       </c>
       <c r="J45" t="n">
-        <v>95.26486121615869</v>
+        <v>95.26486121615866</v>
       </c>
       <c r="K45" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L45" t="n">
-        <v>218.9353769326371</v>
+        <v>218.935376932637</v>
       </c>
       <c r="M45" t="n">
-        <v>255.4872583657902</v>
+        <v>255.4872583657901</v>
       </c>
       <c r="N45" t="n">
-        <v>262.2492458686688</v>
+        <v>262.2492458686687</v>
       </c>
       <c r="O45" t="n">
-        <v>239.9068254209628</v>
+        <v>239.9068254209627</v>
       </c>
       <c r="P45" t="n">
-        <v>192.5463779596637</v>
+        <v>185.0514491308334</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.7121545348444</v>
+        <v>128.7121545348443</v>
       </c>
       <c r="R45" t="n">
-        <v>62.60477115156876</v>
+        <v>62.60477115156875</v>
       </c>
       <c r="S45" t="n">
-        <v>18.72924596121033</v>
+        <v>18.72924596121032</v>
       </c>
       <c r="T45" t="n">
-        <v>4.0642684860336</v>
+        <v>4.064268486033599</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06633735287323619</v>
+        <v>0.06633735287323617</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8453481251387251</v>
+        <v>0.8453481251387249</v>
       </c>
       <c r="H46" t="n">
-        <v>7.515913330778853</v>
+        <v>7.515913330778851</v>
       </c>
       <c r="I46" t="n">
         <v>25.42192361780821</v>
       </c>
       <c r="J46" t="n">
-        <v>59.76611244730787</v>
+        <v>59.76611244730785</v>
       </c>
       <c r="K46" t="n">
-        <v>98.21408217520823</v>
+        <v>98.2140821752082</v>
       </c>
       <c r="L46" t="n">
         <v>125.680211259261</v>
       </c>
       <c r="M46" t="n">
-        <v>132.5121611069731</v>
+        <v>132.512161106973</v>
       </c>
       <c r="N46" t="n">
-        <v>129.3613180950925</v>
+        <v>129.3613180950924</v>
       </c>
       <c r="O46" t="n">
         <v>119.4861149968809</v>
       </c>
       <c r="P46" t="n">
-        <v>102.2410132440509</v>
+        <v>102.2410132440508</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.78637800593452</v>
+        <v>70.78637800593451</v>
       </c>
       <c r="R46" t="n">
-        <v>38.0099256994194</v>
+        <v>38.00992569941939</v>
       </c>
       <c r="S46" t="n">
         <v>14.73211232628123</v>
       </c>
       <c r="T46" t="n">
-        <v>3.611941989229098</v>
+        <v>3.611941989229097</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04610989773483961</v>
+        <v>0.0461098977348396</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>28.75252608797635</v>
+        <v>2.425583501655538</v>
       </c>
       <c r="J9" t="n">
-        <v>28.41038681069788</v>
+        <v>6.655986523460121</v>
       </c>
       <c r="K9" t="n">
         <v>11.37614111852891</v>
@@ -35269,13 +35269,13 @@
         <v>16.76186346679083</v>
       </c>
       <c r="P9" t="n">
-        <v>13.45287318408649</v>
+        <v>13.45287318408647</v>
       </c>
       <c r="Q9" t="n">
-        <v>8.99288945632901</v>
+        <v>20.13331336509094</v>
       </c>
       <c r="R9" t="n">
-        <v>4.37408408273069</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35333,25 +35333,25 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K10" t="n">
-        <v>41.31500304752736</v>
+        <v>6.862043349739423</v>
       </c>
       <c r="L10" t="n">
+        <v>8.781052968829314</v>
+      </c>
+      <c r="M10" t="n">
+        <v>9.258389161154682</v>
+      </c>
+      <c r="N10" t="n">
+        <v>9.038245360419708</v>
+      </c>
+      <c r="O10" t="n">
+        <v>8.348282472750284</v>
+      </c>
+      <c r="P10" t="n">
+        <v>38.67269972973595</v>
+      </c>
+      <c r="Q10" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="M10" t="n">
-        <v>10.17006588498498</v>
-      </c>
-      <c r="N10" t="n">
-        <v>9.038245360419694</v>
-      </c>
-      <c r="O10" t="n">
-        <v>8.348282472750299</v>
-      </c>
-      <c r="P10" t="n">
-        <v>7.143397865800722</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>4.945718411146316</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,19 +35406,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>72.24182527314099</v>
+        <v>72.24182527314098</v>
       </c>
       <c r="J11" t="n">
-        <v>159.9495583954524</v>
+        <v>159.9495583954526</v>
       </c>
       <c r="K11" t="n">
         <v>239.7229253891282</v>
       </c>
       <c r="L11" t="n">
-        <v>297.3974866963032</v>
+        <v>297.3974866963031</v>
       </c>
       <c r="M11" t="n">
-        <v>330.9120063106139</v>
+        <v>330.9120063106138</v>
       </c>
       <c r="N11" t="n">
         <v>336.2665085305712</v>
@@ -35433,7 +35433,7 @@
         <v>203.5111312293484</v>
       </c>
       <c r="R11" t="n">
-        <v>118.3809063174226</v>
+        <v>118.3809063174222</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>27.22161917482968</v>
+        <v>34.71654800366026</v>
       </c>
       <c r="J12" t="n">
-        <v>95.26486121615869</v>
+        <v>95.26486121615865</v>
       </c>
       <c r="K12" t="n">
-        <v>162.8228213822624</v>
+        <v>155.327892553432</v>
       </c>
       <c r="L12" t="n">
-        <v>218.9353769326371</v>
+        <v>218.935376932637</v>
       </c>
       <c r="M12" t="n">
         <v>255.4872583657901</v>
       </c>
       <c r="N12" t="n">
-        <v>262.2492458686688</v>
+        <v>262.2492458686687</v>
       </c>
       <c r="O12" t="n">
         <v>239.9068254209628</v>
@@ -35573,25 +35573,25 @@
         <v>375.7478746713048</v>
       </c>
       <c r="L13" t="n">
-        <v>125.680211259261</v>
+        <v>548.1144352673025</v>
       </c>
       <c r="M13" t="n">
-        <v>592.7148092945132</v>
+        <v>132.5121611069731</v>
       </c>
       <c r="N13" t="n">
-        <v>576.087381890693</v>
+        <v>129.3613180950924</v>
       </c>
       <c r="O13" t="n">
-        <v>119.486114996881</v>
+        <v>303.2126047817994</v>
       </c>
       <c r="P13" t="n">
-        <v>152.4900796703773</v>
+        <v>453.2580778605577</v>
       </c>
       <c r="Q13" t="n">
         <v>240.6780697880881</v>
       </c>
       <c r="R13" t="n">
-        <v>16.80628261773756</v>
+        <v>16.80628261773755</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,16 +35643,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>72.24182527314099</v>
+        <v>72.24182527314098</v>
       </c>
       <c r="J14" t="n">
-        <v>159.9495583954524</v>
+        <v>159.9495583954522</v>
       </c>
       <c r="K14" t="n">
-        <v>239.7229253891282</v>
+        <v>239.7229253891284</v>
       </c>
       <c r="L14" t="n">
-        <v>297.3974866963035</v>
+        <v>297.397486696303</v>
       </c>
       <c r="M14" t="n">
         <v>330.9120063106141</v>
@@ -35661,16 +35661,16 @@
         <v>336.2665085305709</v>
       </c>
       <c r="O14" t="n">
-        <v>317.5269286098676</v>
+        <v>317.526928609868</v>
       </c>
       <c r="P14" t="n">
-        <v>271.0018873233957</v>
+        <v>271.0018873233953</v>
       </c>
       <c r="Q14" t="n">
         <v>203.5111312293484</v>
       </c>
       <c r="R14" t="n">
-        <v>118.3809063174222</v>
+        <v>118.3809063174226</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>27.22161917482989</v>
+        <v>34.71654800366025</v>
       </c>
       <c r="J15" t="n">
-        <v>95.26486121615868</v>
+        <v>95.26486121615866</v>
       </c>
       <c r="K15" t="n">
         <v>162.8228213822624</v>
@@ -35737,7 +35737,7 @@
         <v>255.4872583657901</v>
       </c>
       <c r="N15" t="n">
-        <v>262.2492458686687</v>
+        <v>254.7543170398384</v>
       </c>
       <c r="O15" t="n">
         <v>239.9068254209628</v>
@@ -35810,19 +35810,19 @@
         <v>375.7478746713048</v>
       </c>
       <c r="L16" t="n">
-        <v>175.9292776855874</v>
+        <v>548.1144352673025</v>
       </c>
       <c r="M16" t="n">
-        <v>592.7148092945132</v>
+        <v>132.5121611069731</v>
       </c>
       <c r="N16" t="n">
-        <v>576.087381890693</v>
+        <v>129.3613180950924</v>
       </c>
       <c r="O16" t="n">
-        <v>119.486114996881</v>
+        <v>303.212604781799</v>
       </c>
       <c r="P16" t="n">
-        <v>102.2410132440509</v>
+        <v>453.2580778605577</v>
       </c>
       <c r="Q16" t="n">
         <v>240.6780697880881</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>72.24182527314099</v>
+        <v>72.24182527314098</v>
       </c>
       <c r="J17" t="n">
         <v>159.9495583954524</v>
       </c>
       <c r="K17" t="n">
-        <v>239.7229253891283</v>
+        <v>239.7229253891282</v>
       </c>
       <c r="L17" t="n">
-        <v>297.3974866963031</v>
+        <v>297.397486696303</v>
       </c>
       <c r="M17" t="n">
-        <v>330.9120063106138</v>
+        <v>330.9120063106139</v>
       </c>
       <c r="N17" t="n">
-        <v>336.2665085305712</v>
+        <v>336.2665085305709</v>
       </c>
       <c r="O17" t="n">
         <v>317.526928609868</v>
       </c>
       <c r="P17" t="n">
-        <v>271.0018873233955</v>
+        <v>271.0018873233957</v>
       </c>
       <c r="Q17" t="n">
         <v>203.5111312293484</v>
       </c>
       <c r="R17" t="n">
-        <v>118.3809063174226</v>
+        <v>118.3809063174222</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>34.71654800366026</v>
       </c>
       <c r="J18" t="n">
-        <v>95.26486121615869</v>
+        <v>95.26486121615865</v>
       </c>
       <c r="K18" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L18" t="n">
-        <v>218.9353769326372</v>
+        <v>218.935376932637</v>
       </c>
       <c r="M18" t="n">
         <v>255.4872583657901</v>
       </c>
       <c r="N18" t="n">
-        <v>254.7543170398382</v>
+        <v>262.2492458686687</v>
       </c>
       <c r="O18" t="n">
         <v>239.9068254209628</v>
       </c>
       <c r="P18" t="n">
-        <v>192.5463779596637</v>
+        <v>185.0514491308334</v>
       </c>
       <c r="Q18" t="n">
         <v>128.7121545348443</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.76611244730787</v>
+        <v>147.2203398863885</v>
       </c>
       <c r="K19" t="n">
-        <v>98.21408217520822</v>
+        <v>98.2140821752082</v>
       </c>
       <c r="L19" t="n">
-        <v>286.9006568516238</v>
+        <v>199.4464294125428</v>
       </c>
       <c r="M19" t="n">
-        <v>592.7148092945132</v>
+        <v>592.7148092945131</v>
       </c>
       <c r="N19" t="n">
         <v>576.087381890693</v>
@@ -36065,7 +36065,7 @@
         <v>70.78637800593469</v>
       </c>
       <c r="R19" t="n">
-        <v>16.80628261773756</v>
+        <v>16.80628261773755</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,10 +36117,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>72.24182527314099</v>
+        <v>72.24182527314098</v>
       </c>
       <c r="J20" t="n">
-        <v>159.9495583954523</v>
+        <v>159.9495583954526</v>
       </c>
       <c r="K20" t="n">
         <v>239.7229253891282</v>
@@ -36129,22 +36129,22 @@
         <v>297.3974866963031</v>
       </c>
       <c r="M20" t="n">
-        <v>330.9120063106141</v>
+        <v>330.9120063106138</v>
       </c>
       <c r="N20" t="n">
-        <v>336.2665085305712</v>
+        <v>336.2665085305709</v>
       </c>
       <c r="O20" t="n">
         <v>317.526928609868</v>
       </c>
       <c r="P20" t="n">
-        <v>271.0018873233955</v>
+        <v>271.0018873233957</v>
       </c>
       <c r="Q20" t="n">
         <v>203.5111312293484</v>
       </c>
       <c r="R20" t="n">
-        <v>118.3809063174226</v>
+        <v>118.3809063174222</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>27.22161917482989</v>
+        <v>34.71654800366026</v>
       </c>
       <c r="J21" t="n">
-        <v>95.26486121615868</v>
+        <v>95.26486121615865</v>
       </c>
       <c r="K21" t="n">
         <v>162.8228213822624</v>
@@ -36214,7 +36214,7 @@
         <v>262.2492458686687</v>
       </c>
       <c r="O21" t="n">
-        <v>239.9068254209628</v>
+        <v>232.4118965921325</v>
       </c>
       <c r="P21" t="n">
         <v>192.5463779596637</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>147.2203398863885</v>
+        <v>59.76611244730785</v>
       </c>
       <c r="K22" t="n">
-        <v>375.7478746713048</v>
+        <v>98.21408217520819</v>
       </c>
       <c r="L22" t="n">
-        <v>175.9292776855874</v>
+        <v>125.680211259261</v>
       </c>
       <c r="M22" t="n">
-        <v>592.7148092945132</v>
+        <v>592.7148092945131</v>
       </c>
       <c r="N22" t="n">
         <v>576.087381890693</v>
       </c>
       <c r="O22" t="n">
-        <v>119.486114996881</v>
+        <v>353.597828524031</v>
       </c>
       <c r="P22" t="n">
-        <v>102.2410132440509</v>
+        <v>453.2580778605577</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.6780697880881</v>
+        <v>70.78637800593469</v>
       </c>
       <c r="R22" t="n">
         <v>16.80628261773755</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>72.24182527314099</v>
+        <v>72.24182527314098</v>
       </c>
       <c r="J23" t="n">
         <v>599.6007578428442</v>
@@ -36366,19 +36366,19 @@
         <v>297.3974866963031</v>
       </c>
       <c r="M23" t="n">
-        <v>336.642082716148</v>
+        <v>330.9120063106141</v>
       </c>
       <c r="N23" t="n">
-        <v>336.2665085305712</v>
+        <v>336.2665085305709</v>
       </c>
       <c r="O23" t="n">
-        <v>317.5269286098678</v>
+        <v>317.526928609868</v>
       </c>
       <c r="P23" t="n">
         <v>271.0018873233957</v>
       </c>
       <c r="Q23" t="n">
-        <v>203.5111312293484</v>
+        <v>209.2412076348833</v>
       </c>
       <c r="R23" t="n">
         <v>289.2435979871771</v>
@@ -36439,13 +36439,13 @@
         <v>95.26486121615866</v>
       </c>
       <c r="K24" t="n">
-        <v>162.8228213822624</v>
+        <v>162.8228213822623</v>
       </c>
       <c r="L24" t="n">
         <v>218.935376932637</v>
       </c>
       <c r="M24" t="n">
-        <v>247.9923295369598</v>
+        <v>255.4872583657901</v>
       </c>
       <c r="N24" t="n">
         <v>262.2492458686687</v>
@@ -36454,7 +36454,7 @@
         <v>239.9068254209628</v>
       </c>
       <c r="P24" t="n">
-        <v>192.5463779596637</v>
+        <v>185.0514491308334</v>
       </c>
       <c r="Q24" t="n">
         <v>128.7121545348443</v>
@@ -36521,10 +36521,10 @@
         <v>375.7478746713048</v>
       </c>
       <c r="L25" t="n">
-        <v>364.342442479955</v>
+        <v>125.680211259261</v>
       </c>
       <c r="M25" t="n">
-        <v>596.6372794715317</v>
+        <v>596.6372794715315</v>
       </c>
       <c r="N25" t="n">
         <v>576.087381890693</v>
@@ -36533,7 +36533,7 @@
         <v>543.3944475481753</v>
       </c>
       <c r="P25" t="n">
-        <v>102.2410132440509</v>
+        <v>340.903244464746</v>
       </c>
       <c r="Q25" t="n">
         <v>240.6780697880881</v>
@@ -36591,10 +36591,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>72.24182527314099</v>
+        <v>72.24182527314098</v>
       </c>
       <c r="J26" t="n">
-        <v>231.3568050347416</v>
+        <v>599.6007578428442</v>
       </c>
       <c r="K26" t="n">
         <v>239.7229253891282</v>
@@ -36609,16 +36609,16 @@
         <v>336.2665085305709</v>
       </c>
       <c r="O26" t="n">
-        <v>317.5269286098678</v>
+        <v>317.526928609868</v>
       </c>
       <c r="P26" t="n">
-        <v>271.0018873233955</v>
+        <v>271.0018873233957</v>
       </c>
       <c r="Q26" t="n">
-        <v>748.3478521127413</v>
+        <v>209.2412076348833</v>
       </c>
       <c r="R26" t="n">
-        <v>118.3809063174226</v>
+        <v>289.2435979871771</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>27.22161917482988</v>
+        <v>27.22161917482991</v>
       </c>
       <c r="J27" t="n">
-        <v>95.26486121615868</v>
+        <v>95.26486121615866</v>
       </c>
       <c r="K27" t="n">
         <v>162.8228213822624</v>
@@ -36755,7 +36755,7 @@
         <v>59.76611244730786</v>
       </c>
       <c r="K28" t="n">
-        <v>98.30473648868617</v>
+        <v>98.30473648868528</v>
       </c>
       <c r="L28" t="n">
         <v>548.1144352673025</v>
@@ -36770,7 +36770,7 @@
         <v>543.3944475481753</v>
       </c>
       <c r="P28" t="n">
-        <v>453.2580778605575</v>
+        <v>453.2580778605579</v>
       </c>
       <c r="Q28" t="n">
         <v>70.78637800593469</v>
@@ -36828,13 +36828,13 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>72.24182527314099</v>
+        <v>72.24182527314098</v>
       </c>
       <c r="J29" t="n">
         <v>599.6007578428442</v>
       </c>
       <c r="K29" t="n">
-        <v>239.7229253891282</v>
+        <v>245.4530017946638</v>
       </c>
       <c r="L29" t="n">
         <v>297.3974866963031</v>
@@ -36843,7 +36843,7 @@
         <v>330.9120063106141</v>
       </c>
       <c r="N29" t="n">
-        <v>336.2665085305712</v>
+        <v>336.2665085305709</v>
       </c>
       <c r="O29" t="n">
         <v>317.5269286098678</v>
@@ -36852,7 +36852,7 @@
         <v>271.0018873233957</v>
       </c>
       <c r="Q29" t="n">
-        <v>209.2412076348837</v>
+        <v>203.5111312293484</v>
       </c>
       <c r="R29" t="n">
         <v>289.2435979871771</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>27.22161917482988</v>
+        <v>34.71654800366025</v>
       </c>
       <c r="J30" t="n">
-        <v>95.26486121615868</v>
+        <v>95.26486121615866</v>
       </c>
       <c r="K30" t="n">
-        <v>162.8228213822624</v>
+        <v>155.327892553432</v>
       </c>
       <c r="L30" t="n">
         <v>218.935376932637</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.76611244730786</v>
+        <v>59.76611244730785</v>
       </c>
       <c r="K31" t="n">
-        <v>98.30473648868617</v>
+        <v>98.21408217520823</v>
       </c>
       <c r="L31" t="n">
         <v>548.1144352673025</v>
@@ -37007,10 +37007,10 @@
         <v>543.3944475481753</v>
       </c>
       <c r="P31" t="n">
-        <v>453.2580778605575</v>
+        <v>453.2580778605579</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.78637800593469</v>
+        <v>70.87703231941214</v>
       </c>
       <c r="R31" t="n">
         <v>16.80628261773755</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>72.24182527314099</v>
+        <v>72.24182527314098</v>
       </c>
       <c r="J32" t="n">
-        <v>599.6007578428442</v>
+        <v>231.3568050347414</v>
       </c>
       <c r="K32" t="n">
         <v>239.7229253891282</v>
       </c>
       <c r="L32" t="n">
-        <v>297.3974866963031</v>
+        <v>297.397486696303</v>
       </c>
       <c r="M32" t="n">
-        <v>330.9120063106141</v>
+        <v>330.9120063106139</v>
       </c>
       <c r="N32" t="n">
-        <v>336.2665085305712</v>
+        <v>336.2665085305709</v>
       </c>
       <c r="O32" t="n">
         <v>317.5269286098678</v>
       </c>
       <c r="P32" t="n">
-        <v>271.0018873233957</v>
+        <v>271.0018873233955</v>
       </c>
       <c r="Q32" t="n">
-        <v>209.2412076348837</v>
+        <v>748.3478521127413</v>
       </c>
       <c r="R32" t="n">
-        <v>289.2435979871771</v>
+        <v>118.3809063174226</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.71654800366025</v>
+        <v>34.71654800366026</v>
       </c>
       <c r="J33" t="n">
-        <v>95.26486121615869</v>
+        <v>95.26486121615866</v>
       </c>
       <c r="K33" t="n">
-        <v>162.8228213822624</v>
+        <v>162.8228213822623</v>
       </c>
       <c r="L33" t="n">
-        <v>218.9353769326371</v>
+        <v>218.935376932637</v>
       </c>
       <c r="M33" t="n">
         <v>255.4872583657901</v>
       </c>
       <c r="N33" t="n">
-        <v>262.2492458686686</v>
+        <v>262.2492458686687</v>
       </c>
       <c r="O33" t="n">
         <v>239.9068254209628</v>
       </c>
       <c r="P33" t="n">
-        <v>192.5463779596637</v>
+        <v>185.0514491308334</v>
       </c>
       <c r="Q33" t="n">
         <v>128.7121545348443</v>
       </c>
       <c r="R33" t="n">
-        <v>55.10984232273836</v>
+        <v>62.60477115156868</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.85676676078582</v>
+        <v>59.76611244730786</v>
       </c>
       <c r="K34" t="n">
-        <v>98.21408217520822</v>
+        <v>98.21408217520823</v>
       </c>
       <c r="L34" t="n">
         <v>548.1144352673025</v>
@@ -37244,10 +37244,10 @@
         <v>543.3944475481753</v>
       </c>
       <c r="P34" t="n">
-        <v>453.2580778605575</v>
+        <v>453.2580778605579</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.78637800593469</v>
+        <v>70.87703231941168</v>
       </c>
       <c r="R34" t="n">
         <v>16.80628261773755</v>
@@ -37302,28 +37302,28 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>72.24182527314099</v>
+        <v>72.24182527314098</v>
       </c>
       <c r="J35" t="n">
-        <v>159.9495583954524</v>
+        <v>159.9495583954526</v>
       </c>
       <c r="K35" t="n">
         <v>239.7229253891282</v>
       </c>
       <c r="L35" t="n">
-        <v>297.3974866963031</v>
+        <v>297.397486696303</v>
       </c>
       <c r="M35" t="n">
         <v>330.9120063106139</v>
       </c>
       <c r="N35" t="n">
-        <v>336.2665085305712</v>
+        <v>336.2665085305709</v>
       </c>
       <c r="O35" t="n">
         <v>317.5269286098678</v>
       </c>
       <c r="P35" t="n">
-        <v>271.0018873233957</v>
+        <v>271.0018873233955</v>
       </c>
       <c r="Q35" t="n">
         <v>203.5111312293484</v>
@@ -37384,13 +37384,13 @@
         <v>34.71654800366026</v>
       </c>
       <c r="J36" t="n">
-        <v>95.26486121615869</v>
+        <v>87.76993238732832</v>
       </c>
       <c r="K36" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L36" t="n">
-        <v>218.9353769326372</v>
+        <v>218.935376932637</v>
       </c>
       <c r="M36" t="n">
         <v>255.4872583657901</v>
@@ -37405,7 +37405,7 @@
         <v>192.5463779596637</v>
       </c>
       <c r="Q36" t="n">
-        <v>121.2172257060138</v>
+        <v>128.7121545348443</v>
       </c>
       <c r="R36" t="n">
         <v>62.60477115156868</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>147.2203398863885</v>
+        <v>59.76611244730785</v>
       </c>
       <c r="K37" t="n">
-        <v>375.7478746713048</v>
+        <v>98.21408217520819</v>
       </c>
       <c r="L37" t="n">
-        <v>175.9292776855874</v>
+        <v>548.1144352673025</v>
       </c>
       <c r="M37" t="n">
-        <v>592.7148092945132</v>
+        <v>592.714809294513</v>
       </c>
       <c r="N37" t="n">
         <v>576.087381890693</v>
       </c>
       <c r="O37" t="n">
-        <v>119.486114996881</v>
+        <v>282.1806691324964</v>
       </c>
       <c r="P37" t="n">
         <v>102.2410132440509</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.6780697880881</v>
+        <v>70.78637800593469</v>
       </c>
       <c r="R37" t="n">
-        <v>16.80628261773756</v>
+        <v>16.80628261773755</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,10 +37539,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>72.24182527314099</v>
+        <v>72.24182527314098</v>
       </c>
       <c r="J38" t="n">
-        <v>159.9495583954523</v>
+        <v>159.9495583954524</v>
       </c>
       <c r="K38" t="n">
         <v>239.7229253891282</v>
@@ -37554,10 +37554,10 @@
         <v>330.9120063106141</v>
       </c>
       <c r="N38" t="n">
-        <v>336.2665085305712</v>
+        <v>336.2665085305709</v>
       </c>
       <c r="O38" t="n">
-        <v>317.526928609868</v>
+        <v>317.5269286098678</v>
       </c>
       <c r="P38" t="n">
         <v>271.0018873233955</v>
@@ -37621,13 +37621,13 @@
         <v>34.71654800366026</v>
       </c>
       <c r="J39" t="n">
-        <v>95.26486121615869</v>
+        <v>95.26486121615865</v>
       </c>
       <c r="K39" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L39" t="n">
-        <v>218.9353769326372</v>
+        <v>218.935376932637</v>
       </c>
       <c r="M39" t="n">
         <v>255.4872583657901</v>
@@ -37636,10 +37636,10 @@
         <v>262.2492458686687</v>
       </c>
       <c r="O39" t="n">
-        <v>232.4118965921323</v>
+        <v>239.9068254209628</v>
       </c>
       <c r="P39" t="n">
-        <v>192.5463779596637</v>
+        <v>185.0514491308334</v>
       </c>
       <c r="Q39" t="n">
         <v>128.7121545348443</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>147.2203398863885</v>
+        <v>59.76611244730785</v>
       </c>
       <c r="K40" t="n">
-        <v>375.7478746713048</v>
+        <v>98.21408217520819</v>
       </c>
       <c r="L40" t="n">
         <v>548.1144352673025</v>
       </c>
       <c r="M40" t="n">
-        <v>132.5121611069731</v>
+        <v>592.714809294513</v>
       </c>
       <c r="N40" t="n">
-        <v>129.3613180950924</v>
+        <v>576.087381890693</v>
       </c>
       <c r="O40" t="n">
-        <v>303.2126047817999</v>
+        <v>282.1806691324964</v>
       </c>
       <c r="P40" t="n">
-        <v>453.2580778605577</v>
+        <v>102.2410132440509</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.6780697880881</v>
+        <v>70.78637800593469</v>
       </c>
       <c r="R40" t="n">
-        <v>16.80628261773756</v>
+        <v>16.80628261773755</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>72.24182527314099</v>
+        <v>72.24182527314098</v>
       </c>
       <c r="J41" t="n">
         <v>159.9495583954524</v>
@@ -37788,16 +37788,16 @@
         <v>297.3974866963031</v>
       </c>
       <c r="M41" t="n">
-        <v>330.9120063106139</v>
+        <v>330.9120063106141</v>
       </c>
       <c r="N41" t="n">
-        <v>336.2665085305712</v>
+        <v>336.2665085305709</v>
       </c>
       <c r="O41" t="n">
         <v>317.5269286098678</v>
       </c>
       <c r="P41" t="n">
-        <v>271.0018873233957</v>
+        <v>271.0018873233955</v>
       </c>
       <c r="Q41" t="n">
         <v>203.5111312293484</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>27.22161917482968</v>
+        <v>34.71654800366026</v>
       </c>
       <c r="J42" t="n">
-        <v>95.26486121615869</v>
+        <v>95.26486121615865</v>
       </c>
       <c r="K42" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L42" t="n">
-        <v>218.9353769326371</v>
+        <v>218.935376932637</v>
       </c>
       <c r="M42" t="n">
         <v>255.4872583657901</v>
       </c>
       <c r="N42" t="n">
-        <v>262.2492458686688</v>
+        <v>262.2492458686687</v>
       </c>
       <c r="O42" t="n">
         <v>239.9068254209628</v>
       </c>
       <c r="P42" t="n">
-        <v>192.5463779596637</v>
+        <v>185.0514491308334</v>
       </c>
       <c r="Q42" t="n">
         <v>128.7121545348443</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>147.2203398863885</v>
+        <v>59.76611244730785</v>
       </c>
       <c r="K43" t="n">
-        <v>375.7478746713048</v>
+        <v>98.21408217520819</v>
       </c>
       <c r="L43" t="n">
-        <v>271.6382768646812</v>
+        <v>548.1144352673025</v>
       </c>
       <c r="M43" t="n">
-        <v>592.7148092945132</v>
+        <v>592.714809294513</v>
       </c>
       <c r="N43" t="n">
-        <v>129.3613180950924</v>
+        <v>576.087381890693</v>
       </c>
       <c r="O43" t="n">
-        <v>119.486114996881</v>
+        <v>282.1806691324964</v>
       </c>
       <c r="P43" t="n">
-        <v>453.2580778605577</v>
+        <v>102.2410132440509</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.6780697880881</v>
+        <v>70.78637800593469</v>
       </c>
       <c r="R43" t="n">
-        <v>16.80628261773756</v>
+        <v>16.80628261773755</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,25 +38013,25 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>72.24182527314099</v>
+        <v>72.24182527314098</v>
       </c>
       <c r="J44" t="n">
         <v>159.9495583954526</v>
       </c>
       <c r="K44" t="n">
-        <v>239.7229253891285</v>
+        <v>239.7229253891282</v>
       </c>
       <c r="L44" t="n">
         <v>297.3974866963031</v>
       </c>
       <c r="M44" t="n">
-        <v>330.9120063106141</v>
+        <v>330.9120063106138</v>
       </c>
       <c r="N44" t="n">
-        <v>336.2665085305714</v>
+        <v>336.2665085305709</v>
       </c>
       <c r="O44" t="n">
-        <v>317.5269286098676</v>
+        <v>317.526928609868</v>
       </c>
       <c r="P44" t="n">
         <v>271.0018873233957</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>27.22161917482968</v>
+        <v>34.71654800366026</v>
       </c>
       <c r="J45" t="n">
-        <v>95.26486121615869</v>
+        <v>95.26486121615865</v>
       </c>
       <c r="K45" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L45" t="n">
-        <v>218.9353769326371</v>
+        <v>218.935376932637</v>
       </c>
       <c r="M45" t="n">
         <v>255.4872583657901</v>
       </c>
       <c r="N45" t="n">
-        <v>262.2492458686688</v>
+        <v>262.2492458686687</v>
       </c>
       <c r="O45" t="n">
         <v>239.9068254209628</v>
       </c>
       <c r="P45" t="n">
-        <v>192.5463779596637</v>
+        <v>185.0514491308334</v>
       </c>
       <c r="Q45" t="n">
         <v>128.7121545348443</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>147.2203398863885</v>
+        <v>59.76611244730785</v>
       </c>
       <c r="K46" t="n">
-        <v>171.9803003284902</v>
+        <v>98.21408217520819</v>
       </c>
       <c r="L46" t="n">
-        <v>125.6802112592611</v>
+        <v>286.9006568516235</v>
       </c>
       <c r="M46" t="n">
-        <v>592.7148092945132</v>
+        <v>592.7148092945131</v>
       </c>
       <c r="N46" t="n">
         <v>576.087381890693</v>
@@ -38198,7 +38198,7 @@
         <v>70.78637800593469</v>
       </c>
       <c r="R46" t="n">
-        <v>16.80628261773756</v>
+        <v>16.80628261773755</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
